--- a/capiq_data/in_process_data/IQ110001.xlsx
+++ b/capiq_data/in_process_data/IQ110001.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9044E0-9E9A-4C74-8774-BC21B288E565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFBC50D-7C47-4212-8FFE-AA1AF8EDB06B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"18f88993-b1b0-4c0e-804e-7fc97ce17c0a"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"1439a302-42f9-40e2-986e-2ff3775b4d9b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>251.828</v>
+        <v>-184.184</v>
       </c>
       <c r="D2">
-        <v>3206.5790000000002</v>
+        <v>805.39800000000002</v>
       </c>
       <c r="E2">
-        <v>786.053</v>
+        <v>278.61399999999998</v>
       </c>
       <c r="F2">
-        <v>1316.069</v>
+        <v>376.45299999999997</v>
       </c>
       <c r="G2">
-        <v>4573.393</v>
+        <v>2060.6060000000002</v>
       </c>
       <c r="H2">
-        <v>9632.1530000000002</v>
+        <v>4636.835</v>
       </c>
       <c r="I2">
-        <v>400.76400000000001</v>
+        <v>226.56800000000001</v>
       </c>
       <c r="J2">
-        <v>5484.0410000000002</v>
+        <v>4014.8119999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4499.3010000000004</v>
+        <v>1223.077</v>
       </c>
       <c r="O2">
-        <v>10765.596</v>
+        <v>5294.2179999999998</v>
       </c>
       <c r="P2">
-        <v>6514.9359999999997</v>
+        <v>4035.944</v>
       </c>
       <c r="Q2">
-        <v>-73.685000000000002</v>
+        <v>-385.39299999999997</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="T2">
-        <v>-1133.443</v>
+        <v>-657.38300000000004</v>
       </c>
       <c r="U2">
-        <v>640.67200000000003</v>
+        <v>856.81799999999998</v>
       </c>
       <c r="V2">
-        <v>605.86</v>
+        <v>104.851</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-3.79</v>
+        <v>-2.2930000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-396.75700000000001</v>
+        <v>-286.14</v>
       </c>
       <c r="AA2">
-        <v>251.828</v>
+        <v>-184.184</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>549.39400000000001</v>
+        <v>-169.86699999999999</v>
       </c>
       <c r="D3">
-        <v>3224.1309999999999</v>
+        <v>861.93</v>
       </c>
       <c r="E3">
-        <v>740.83299999999997</v>
+        <v>251.8</v>
       </c>
       <c r="F3">
-        <v>1334.63</v>
+        <v>426.95299999999997</v>
       </c>
       <c r="G3">
-        <v>4996.7550000000001</v>
+        <v>1853.1389999999999</v>
       </c>
       <c r="H3">
-        <v>10280.612999999999</v>
+        <v>4493.3509999999997</v>
       </c>
       <c r="I3">
-        <v>370.77600000000001</v>
+        <v>120.339</v>
       </c>
       <c r="J3">
-        <v>5478.723</v>
+        <v>4014.585</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-8.4979999999999993</v>
+        <v>-3.984</v>
       </c>
       <c r="N3">
-        <v>4291.6729999999998</v>
+        <v>1157.308</v>
       </c>
       <c r="O3">
-        <v>10783.084999999999</v>
+        <v>5247.8670000000002</v>
       </c>
       <c r="P3">
-        <v>6506.3450000000003</v>
+        <v>4031.96</v>
       </c>
       <c r="Q3">
-        <v>522.85</v>
+        <v>-55.737000000000002</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>-502.47199999999998</v>
+        <v>-754.51599999999996</v>
       </c>
       <c r="U3">
-        <v>1163.5219999999999</v>
+        <v>801.08100000000002</v>
       </c>
       <c r="V3">
-        <v>844.29499999999996</v>
+        <v>-20.323</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-4.58</v>
+        <v>-2.665</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>43.503</v>
+        <v>113.428</v>
       </c>
       <c r="AA3">
-        <v>549.39400000000001</v>
+        <v>-169.86699999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>334.76</v>
+        <v>-5.8550000000000004</v>
       </c>
       <c r="D4">
-        <v>3590.1610000000001</v>
+        <v>966.27200000000005</v>
       </c>
       <c r="E4">
-        <v>830.90599999999995</v>
+        <v>273.68900000000002</v>
       </c>
       <c r="F4">
-        <v>1583.7539999999999</v>
+        <v>475.17099999999999</v>
       </c>
       <c r="G4">
-        <v>6412.7749999999996</v>
+        <v>2906.7359999999999</v>
       </c>
       <c r="H4">
-        <v>12827.701999999999</v>
+        <v>5646.6469999999999</v>
       </c>
       <c r="I4">
-        <v>471.49599999999998</v>
+        <v>186.51499999999999</v>
       </c>
       <c r="J4">
-        <v>7470.9539999999997</v>
+        <v>5013.3879999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4248.6099999999997</v>
+        <v>1276.9960000000001</v>
       </c>
       <c r="O4">
-        <v>12920.307000000001</v>
+        <v>6371.0169999999998</v>
       </c>
       <c r="P4">
-        <v>8501.4459999999999</v>
+        <v>5029.1819999999998</v>
       </c>
       <c r="Q4">
-        <v>691.72799999999995</v>
+        <v>691.47900000000004</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>-92.605000000000004</v>
+        <v>-724.37</v>
       </c>
       <c r="U4">
-        <v>1855.25</v>
+        <v>1492.56</v>
       </c>
       <c r="V4">
-        <v>414.05</v>
+        <v>174.589</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>1987.64</v>
+        <v>980.40899999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-449.14100000000002</v>
+        <v>-314.12</v>
       </c>
       <c r="AA4">
-        <v>334.76</v>
+        <v>-5.8550000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>319.09899999999999</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="D5">
-        <v>3602.6509999999998</v>
+        <v>1022.506</v>
       </c>
       <c r="E5">
-        <v>825.41700000000003</v>
+        <v>290.36599999999999</v>
       </c>
       <c r="F5">
-        <v>1562.42</v>
+        <v>286.32100000000003</v>
       </c>
       <c r="G5">
-        <v>5423.2920000000004</v>
+        <v>2850.2420000000002</v>
       </c>
       <c r="H5">
-        <v>13035.49</v>
+        <v>5758.8540000000003</v>
       </c>
       <c r="I5">
-        <v>514.45500000000004</v>
+        <v>315.39400000000001</v>
       </c>
       <c r="J5">
-        <v>7461.5959999999995</v>
+        <v>5012.1329999999998</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4071.9029999999998</v>
+        <v>1443.828</v>
       </c>
       <c r="O5">
-        <v>12932.155000000001</v>
+        <v>6539.9690000000001</v>
       </c>
       <c r="P5">
-        <v>8407.482</v>
+        <v>5026.2340000000004</v>
       </c>
       <c r="Q5">
-        <v>-809.73400000000004</v>
+        <v>-288.93099999999998</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>103.33499999999999</v>
+        <v>-781.11500000000001</v>
       </c>
       <c r="U5">
-        <v>1045.5160000000001</v>
+        <v>1203.6289999999999</v>
       </c>
       <c r="V5">
-        <v>732.81100000000004</v>
+        <v>178.27</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-90.570999999999998</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-1244.8689999999999</v>
+        <v>-223.02199999999999</v>
       </c>
       <c r="AA5">
-        <v>319.09899999999999</v>
+        <v>3.0950000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>312.654</v>
+        <v>-42.871000000000002</v>
       </c>
       <c r="D6">
-        <v>3631.45</v>
+        <v>1150.43</v>
       </c>
       <c r="E6">
-        <v>794.81700000000001</v>
+        <v>318.12799999999999</v>
       </c>
       <c r="F6">
-        <v>1542.5050000000001</v>
+        <v>825.10599999999999</v>
       </c>
       <c r="G6">
-        <v>3747.8229999999999</v>
+        <v>3511.9670000000001</v>
       </c>
       <c r="H6">
-        <v>11470.231</v>
+        <v>6519.6859999999997</v>
       </c>
       <c r="I6">
-        <v>455.40800000000002</v>
+        <v>254.86799999999999</v>
       </c>
       <c r="J6">
-        <v>7458.134</v>
+        <v>5706.48</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3220.511</v>
+        <v>1488.367</v>
       </c>
       <c r="O6">
-        <v>11889.234</v>
+        <v>7297.4579999999996</v>
       </c>
       <c r="P6">
-        <v>7493.7790000000005</v>
+        <v>5721.2619999999997</v>
       </c>
       <c r="Q6">
-        <v>-436.40800000000002</v>
+        <v>474.26</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>34000</v>
+        <v>11000</v>
       </c>
       <c r="T6">
-        <v>-419.00299999999999</v>
+        <v>-777.77200000000005</v>
       </c>
       <c r="U6">
-        <v>609.10799999999995</v>
+        <v>1677.8889999999999</v>
       </c>
       <c r="V6">
-        <v>582.72199999999998</v>
+        <v>156.947</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-1798.492</v>
+        <v>632.81399999999996</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-28.779</v>
+        <v>-152.197</v>
       </c>
       <c r="AA6">
-        <v>312.654</v>
+        <v>-42.871000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>360.31</v>
+        <v>-35.146999999999998</v>
       </c>
       <c r="D7">
-        <v>3581.8690000000001</v>
+        <v>1104.4680000000001</v>
       </c>
       <c r="E7">
-        <v>776.56700000000001</v>
+        <v>292.50599999999997</v>
       </c>
       <c r="F7">
-        <v>1472.0530000000001</v>
+        <v>424.56799999999998</v>
       </c>
       <c r="G7">
-        <v>4349.4769999999999</v>
+        <v>4977.1130000000003</v>
       </c>
       <c r="H7">
-        <v>12409.512000000001</v>
+        <v>8026.8689999999997</v>
       </c>
       <c r="I7">
-        <v>523.76499999999999</v>
+        <v>237.785</v>
       </c>
       <c r="J7">
-        <v>7474.4260000000004</v>
+        <v>5721.2950000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-8.4580000000000002</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="N7">
-        <v>3571.1190000000001</v>
+        <v>1552.3209999999999</v>
       </c>
       <c r="O7">
-        <v>12465.094999999999</v>
+        <v>7378.6559999999999</v>
       </c>
       <c r="P7">
-        <v>7510.4059999999999</v>
+        <v>5736.02</v>
       </c>
       <c r="Q7">
-        <v>749.56</v>
+        <v>641.54999999999995</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>-55.582999999999998</v>
+        <v>648.21299999999997</v>
       </c>
       <c r="U7">
-        <v>1358.6679999999999</v>
+        <v>2319.4389999999999</v>
       </c>
       <c r="V7">
-        <v>858.55</v>
+        <v>191.83600000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-1.6619999999999999</v>
+        <v>1485.347</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>102.19</v>
+        <v>-873.40099999999995</v>
       </c>
       <c r="AA7">
-        <v>360.31</v>
+        <v>-35.146999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>225.732</v>
+        <v>37.000999999999998</v>
       </c>
       <c r="D8">
-        <v>3571.7660000000001</v>
+        <v>1168.684</v>
       </c>
       <c r="E8">
-        <v>830.82600000000002</v>
+        <v>319.392</v>
       </c>
       <c r="F8">
-        <v>1450.28</v>
+        <v>476.24099999999999</v>
       </c>
       <c r="G8">
-        <v>6497.0280000000002</v>
+        <v>5003.1180000000004</v>
       </c>
       <c r="H8">
-        <v>14521.163</v>
+        <v>8093.67</v>
       </c>
       <c r="I8">
-        <v>465.25799999999998</v>
+        <v>336.37</v>
       </c>
       <c r="J8">
-        <v>9364.9719999999998</v>
+        <v>5720.7719999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3515.6970000000001</v>
+        <v>1586.078</v>
       </c>
       <c r="O8">
-        <v>14348.785</v>
+        <v>7401.7629999999999</v>
       </c>
       <c r="P8">
-        <v>9399.4699999999993</v>
+        <v>5736.1469999999999</v>
       </c>
       <c r="Q8">
-        <v>1237.0260000000001</v>
+        <v>693.77200000000005</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>172.37799999999999</v>
+        <v>691.90700000000004</v>
       </c>
       <c r="U8">
-        <v>2595.694</v>
+        <v>3013.2109999999998</v>
       </c>
       <c r="V8">
-        <v>489.51400000000001</v>
+        <v>175.023</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>1928.771</v>
+        <v>4.173</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-914.048</v>
+        <v>653.91999999999996</v>
       </c>
       <c r="AA8">
-        <v>225.732</v>
+        <v>37.000999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-158.46100000000001</v>
+        <v>-167.94900000000001</v>
       </c>
       <c r="D9">
-        <v>3523.3470000000002</v>
+        <v>1222.8489999999999</v>
       </c>
       <c r="E9">
-        <v>821.21</v>
+        <v>327.33499999999998</v>
       </c>
       <c r="F9">
-        <v>1410.944</v>
+        <v>468.851</v>
       </c>
       <c r="G9">
-        <v>8335.9179999999997</v>
+        <v>4905.22</v>
       </c>
       <c r="H9">
-        <v>16514.257000000001</v>
+        <v>8030.5590000000002</v>
       </c>
       <c r="I9">
-        <v>480.45600000000002</v>
+        <v>280.387</v>
       </c>
       <c r="J9">
-        <v>10113.366</v>
+        <v>5735.0129999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4142.0649999999996</v>
+        <v>1575.4290000000001</v>
       </c>
       <c r="O9">
-        <v>16364.673000000001</v>
+        <v>7572.116</v>
       </c>
       <c r="P9">
-        <v>10390.731</v>
+        <v>5749.9390000000003</v>
       </c>
       <c r="Q9">
-        <v>491.94499999999999</v>
+        <v>415.27600000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>149.584</v>
+        <v>458.44299999999998</v>
       </c>
       <c r="U9">
-        <v>3087.6390000000001</v>
+        <v>3428.4870000000001</v>
       </c>
       <c r="V9">
-        <v>685.97799999999995</v>
+        <v>96.427999999999997</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>1006.587</v>
+        <v>-1.1040000000000001</v>
       </c>
       <c r="Y9">
-        <v>243.43299999999999</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-899.06399999999996</v>
+        <v>441.02699999999999</v>
       </c>
       <c r="AA9">
-        <v>-158.46100000000001</v>
+        <v>-167.94900000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-685.93899999999996</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1324.8240000000001</v>
       </c>
       <c r="E10">
-        <v>860.71500000000003</v>
+        <v>329.02</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>514.79600000000005</v>
       </c>
       <c r="G10">
-        <v>9059.1530000000002</v>
+        <v>3213.5169999999998</v>
       </c>
       <c r="H10">
-        <v>17379.608</v>
+        <v>6260.585</v>
       </c>
       <c r="I10">
-        <v>511.43299999999999</v>
+        <v>264.81299999999999</v>
       </c>
       <c r="J10">
-        <v>11350.398999999999</v>
+        <v>5358.6210000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3924.4670000000001</v>
+        <v>1990.049</v>
       </c>
       <c r="O10">
-        <v>17307.98</v>
+        <v>7436.607</v>
       </c>
       <c r="P10">
-        <v>11887.683999999999</v>
+        <v>5747.0529999999999</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1945.4090000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="T10">
-        <v>71.628</v>
+        <v>-1176.0219999999999</v>
       </c>
       <c r="U10">
-        <v>3573.7420000000002</v>
+        <v>1483.078</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-396.54300000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-1067.5840000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-390.11099999999999</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>-685.93899999999996</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>215.59800000000001</v>
+        <v>57.917000000000002</v>
       </c>
       <c r="D11">
-        <v>3375.53</v>
+        <v>1359.048</v>
       </c>
       <c r="E11">
-        <v>876.46</v>
+        <v>319.608</v>
       </c>
       <c r="F11">
-        <v>1241.4690000000001</v>
+        <v>545.47199999999998</v>
       </c>
       <c r="G11">
-        <v>9336.5609999999997</v>
+        <v>3123.0050000000001</v>
       </c>
       <c r="H11">
-        <v>17654.399000000001</v>
+        <v>6007.8950000000004</v>
       </c>
       <c r="I11">
-        <v>576.92600000000004</v>
+        <v>278.53300000000002</v>
       </c>
       <c r="J11">
-        <v>11343.228999999999</v>
+        <v>5358.3980000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-8.4789999999999992</v>
+        <v>-375.20299999999997</v>
       </c>
       <c r="N11">
-        <v>3872.56</v>
+        <v>1672.7429999999999</v>
       </c>
       <c r="O11">
-        <v>17334.445</v>
+        <v>7128.0820000000003</v>
       </c>
       <c r="P11">
-        <v>11879.633</v>
+        <v>5371.85</v>
       </c>
       <c r="Q11">
-        <v>-675.298</v>
+        <v>-424.87799999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>319.95400000000001</v>
+        <v>-1120.1869999999999</v>
       </c>
       <c r="U11">
-        <v>2930.8420000000001</v>
+        <v>1058.2</v>
       </c>
       <c r="V11">
-        <v>686.46199999999999</v>
+        <v>185.00899999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>2.7480000000000002</v>
+        <v>-373.45400000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-498.99900000000002</v>
+        <v>-184.863</v>
       </c>
       <c r="AA11">
-        <v>215.59800000000001</v>
+        <v>57.917000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-11.052</v>
+        <v>128.79300000000001</v>
       </c>
       <c r="D12">
-        <v>3485.7739999999999</v>
+        <v>1414.567</v>
       </c>
       <c r="E12">
-        <v>902.22699999999998</v>
+        <v>325.13299999999998</v>
       </c>
       <c r="F12">
-        <v>1336.4190000000001</v>
+        <v>600.98099999999999</v>
       </c>
       <c r="G12">
-        <v>12161.891</v>
+        <v>3315.857</v>
       </c>
       <c r="H12">
-        <v>20065.800999999999</v>
+        <v>6232.9930000000004</v>
       </c>
       <c r="I12">
-        <v>616.101</v>
+        <v>321.50299999999999</v>
       </c>
       <c r="J12">
-        <v>13633.031999999999</v>
+        <v>5358.9639999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4011.9</v>
+        <v>1706.7729999999999</v>
       </c>
       <c r="O12">
-        <v>19696.113000000001</v>
+        <v>7162.4650000000001</v>
       </c>
       <c r="P12">
-        <v>14168.869000000001</v>
+        <v>5372.4650000000001</v>
       </c>
       <c r="Q12">
-        <v>1162.98</v>
+        <v>93.766999999999996</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>369.68799999999999</v>
+        <v>-929.47199999999998</v>
       </c>
       <c r="U12">
-        <v>4093.8220000000001</v>
+        <v>1151.9670000000001</v>
       </c>
       <c r="V12">
-        <v>544.80499999999995</v>
+        <v>248.25299999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>2311.991</v>
+        <v>12.569000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-1254.8610000000001</v>
+        <v>-78.256</v>
       </c>
       <c r="AA12">
-        <v>-11.052</v>
+        <v>128.79300000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>314.90800000000002</v>
+        <v>35.116</v>
       </c>
       <c r="D13">
-        <v>3505.0210000000002</v>
+        <v>1452.2950000000001</v>
       </c>
       <c r="E13">
-        <v>928.851</v>
+        <v>339.75299999999999</v>
       </c>
       <c r="F13">
-        <v>1291.596</v>
+        <v>555.97699999999998</v>
       </c>
       <c r="G13">
-        <v>12338.987999999999</v>
+        <v>3716.1959999999999</v>
       </c>
       <c r="H13">
-        <v>20345.240000000002</v>
+        <v>6606.3029999999999</v>
       </c>
       <c r="I13">
-        <v>601.54100000000005</v>
+        <v>338.01900000000001</v>
       </c>
       <c r="J13">
-        <v>13624.285</v>
+        <v>5622.6859999999997</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3923.0720000000001</v>
+        <v>1756.4169999999999</v>
       </c>
       <c r="O13">
-        <v>19619.403999999999</v>
+        <v>7515.8890000000001</v>
       </c>
       <c r="P13">
-        <v>14111.324000000001</v>
+        <v>5636.6610000000001</v>
       </c>
       <c r="Q13">
-        <v>699.63099999999997</v>
+        <v>-243.56800000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>725.83600000000001</v>
+        <v>-909.58600000000001</v>
       </c>
       <c r="U13">
-        <v>4793.4530000000004</v>
+        <v>908.399</v>
       </c>
       <c r="V13">
-        <v>401.04899999999998</v>
+        <v>218.626</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-16.861999999999998</v>
+        <v>258.05500000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-48.359000000000002</v>
+        <v>-645.20699999999999</v>
       </c>
       <c r="AA13">
-        <v>314.90800000000002</v>
+        <v>35.116</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>288.03800000000001</v>
+        <v>2.68</v>
       </c>
       <c r="D14">
-        <v>3538.54</v>
+        <v>1513.386</v>
       </c>
       <c r="E14">
-        <v>957.51800000000003</v>
+        <v>345.673</v>
       </c>
       <c r="F14">
-        <v>1308.105</v>
+        <v>549.00300000000004</v>
       </c>
       <c r="G14">
-        <v>12313.446</v>
+        <v>4573.1149999999998</v>
       </c>
       <c r="H14">
-        <v>20356.43</v>
+        <v>7585.018</v>
       </c>
       <c r="I14">
-        <v>636.95500000000004</v>
+        <v>173.637</v>
       </c>
       <c r="J14">
-        <v>12596.793</v>
+        <v>5455</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4551.6490000000003</v>
+        <v>2972.2840000000001</v>
       </c>
       <c r="O14">
-        <v>19359.424999999999</v>
+        <v>8617.5419999999995</v>
       </c>
       <c r="P14">
-        <v>13631.686</v>
+        <v>6937.6729999999998</v>
       </c>
       <c r="Q14">
-        <v>-84.271000000000001</v>
+        <v>382.46</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="T14">
-        <v>997.005</v>
+        <v>-1032.5239999999999</v>
       </c>
       <c r="U14">
-        <v>4700.0219999999999</v>
+        <v>1290.8589999999999</v>
       </c>
       <c r="V14">
-        <v>640.149</v>
+        <v>-76.307000000000002</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-446.37200000000001</v>
+        <v>1096.9000000000001</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>44.326999999999998</v>
       </c>
       <c r="Z14">
-        <v>445.72199999999998</v>
+        <v>-500.23700000000002</v>
       </c>
       <c r="AA14">
-        <v>288.03800000000001</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>175.93100000000001</v>
+        <v>-42.886000000000003</v>
       </c>
       <c r="D15">
-        <v>3594.1979999999999</v>
+        <v>1579.796</v>
       </c>
       <c r="E15">
-        <v>939.81299999999999</v>
+        <v>350.10700000000003</v>
       </c>
       <c r="F15">
-        <v>1284.902</v>
+        <v>552.70899999999995</v>
       </c>
       <c r="G15">
-        <v>12588.779</v>
+        <v>3477.9430000000002</v>
       </c>
       <c r="H15">
-        <v>20550.786</v>
+        <v>6437.3969999999999</v>
       </c>
       <c r="I15">
-        <v>543.81299999999999</v>
+        <v>373.35700000000003</v>
       </c>
       <c r="J15">
-        <v>12570.232</v>
+        <v>5497.36</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-7.7240000000000002</v>
+        <v>-1426.066</v>
       </c>
       <c r="N15">
-        <v>4636.6210000000001</v>
+        <v>1858.2929999999999</v>
       </c>
       <c r="O15">
-        <v>19406.102999999999</v>
+        <v>7501.0720000000001</v>
       </c>
       <c r="P15">
-        <v>13600.485000000001</v>
+        <v>5511.6059999999998</v>
       </c>
       <c r="Q15">
-        <v>-540.495</v>
+        <v>-253.63800000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1144.683</v>
+        <v>-1063.675</v>
       </c>
       <c r="U15">
-        <v>4168.6869999999999</v>
+        <v>1037.221</v>
       </c>
       <c r="V15">
-        <v>653.89800000000002</v>
+        <v>296.916</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0.20499999999999999</v>
+        <v>-1443.63</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>284.43400000000003</v>
+        <v>970.10500000000002</v>
       </c>
       <c r="AA15">
-        <v>175.93100000000001</v>
+        <v>-42.886000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>213.31299999999999</v>
+        <v>85.316000000000003</v>
       </c>
       <c r="D16">
-        <v>3688.1190000000001</v>
+        <v>1777.713</v>
       </c>
       <c r="E16">
-        <v>972.78399999999999</v>
+        <v>451.61</v>
       </c>
       <c r="F16">
-        <v>1304.451</v>
+        <v>643.59500000000003</v>
       </c>
       <c r="G16">
-        <v>11093.666999999999</v>
+        <v>2648.0859999999998</v>
       </c>
       <c r="H16">
-        <v>20768.696</v>
+        <v>6037.2759999999998</v>
       </c>
       <c r="I16">
-        <v>500.20499999999998</v>
+        <v>248.572</v>
       </c>
       <c r="J16">
-        <v>11795.566000000001</v>
+        <v>5488.3180000000002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5308.1909999999998</v>
+        <v>2009.39</v>
       </c>
       <c r="O16">
-        <v>19332.764999999999</v>
+        <v>7777.1080000000002</v>
       </c>
       <c r="P16">
-        <v>13461.545</v>
+        <v>5502.5479999999998</v>
       </c>
       <c r="Q16">
-        <v>-41.328000000000003</v>
+        <v>-348.36399999999998</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1435.931</v>
+        <v>-1739.8320000000001</v>
       </c>
       <c r="U16">
-        <v>4127.3590000000004</v>
+        <v>688.85699999999997</v>
       </c>
       <c r="V16">
-        <v>467.25099999999998</v>
+        <v>174.345</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-67.337000000000003</v>
+        <v>-688.28700000000003</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-38.686999999999998</v>
+        <v>602.87400000000002</v>
       </c>
       <c r="AA16">
-        <v>213.31299999999999</v>
+        <v>85.316000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>145.51900000000001</v>
+        <v>102.261</v>
       </c>
       <c r="D17">
-        <v>3679.3510000000001</v>
+        <v>1862.6130000000001</v>
       </c>
       <c r="E17">
-        <v>1027.7929999999999</v>
+        <v>438.952</v>
       </c>
       <c r="F17">
-        <v>1282.69</v>
+        <v>717.45699999999999</v>
       </c>
       <c r="G17">
-        <v>11413.787</v>
+        <v>2547.0439999999999</v>
       </c>
       <c r="H17">
-        <v>21123.431</v>
+        <v>6169.7910000000002</v>
       </c>
       <c r="I17">
-        <v>545.476</v>
+        <v>278.38299999999998</v>
       </c>
       <c r="J17">
-        <v>11789.609</v>
+        <v>4513.9579999999996</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5466.7470000000003</v>
+        <v>3049.674</v>
       </c>
       <c r="O17">
-        <v>19557.126</v>
+        <v>7880.8320000000003</v>
       </c>
       <c r="P17">
-        <v>13371.01</v>
+        <v>5530.7250000000004</v>
       </c>
       <c r="Q17">
-        <v>623.197</v>
+        <v>262.84100000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1566.3050000000001</v>
+        <v>-1711.0409999999999</v>
       </c>
       <c r="U17">
-        <v>4750.5559999999996</v>
+        <v>951.69799999999998</v>
       </c>
       <c r="V17">
-        <v>635.524</v>
+        <v>283.32299999999998</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-85.302999999999997</v>
+        <v>-82.72</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>387.52100000000002</v>
+        <v>375.92599999999999</v>
       </c>
       <c r="AA17">
-        <v>145.51900000000001</v>
+        <v>102.261</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>409.93</v>
+        <v>70.078000000000003</v>
       </c>
       <c r="D18">
-        <v>3681.7190000000001</v>
+        <v>1931.0940000000001</v>
       </c>
       <c r="E18">
-        <v>951.49300000000005</v>
+        <v>478.31</v>
       </c>
       <c r="F18">
-        <v>1401.4939999999999</v>
+        <v>766.923</v>
       </c>
       <c r="G18">
-        <v>12552.066999999999</v>
+        <v>2113.308</v>
       </c>
       <c r="H18">
-        <v>22045.541000000001</v>
+        <v>6029.277</v>
       </c>
       <c r="I18">
-        <v>416.99299999999999</v>
+        <v>247.69800000000001</v>
       </c>
       <c r="J18">
-        <v>13746.058999999999</v>
+        <v>5471.1530000000002</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4112.5249999999996</v>
+        <v>2071.8649999999998</v>
       </c>
       <c r="O18">
-        <v>19991.909</v>
+        <v>8107.4889999999996</v>
       </c>
       <c r="P18">
-        <v>14427.526</v>
+        <v>5791.5609999999997</v>
       </c>
       <c r="Q18">
-        <v>2353.94</v>
+        <v>-247.13800000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="T18">
-        <v>2053.6320000000001</v>
+        <v>-2078.212</v>
       </c>
       <c r="U18">
-        <v>7104.4960000000001</v>
+        <v>704.56</v>
       </c>
       <c r="V18">
-        <v>621.45100000000002</v>
+        <v>246.858</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1132.702</v>
+        <v>-451.38499999999999</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>286.673</v>
       </c>
       <c r="Z18">
-        <v>2301.3470000000002</v>
+        <v>214.31100000000001</v>
       </c>
       <c r="AA18">
-        <v>409.93</v>
+        <v>70.078000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>351.48500000000001</v>
+        <v>317.524</v>
       </c>
       <c r="D19">
-        <v>3724.2280000000001</v>
+        <v>2024</v>
       </c>
       <c r="E19">
-        <v>928.51099999999997</v>
+        <v>454.95600000000002</v>
       </c>
       <c r="F19">
-        <v>1282.249</v>
+        <v>869.74199999999996</v>
       </c>
       <c r="G19">
-        <v>13413.6</v>
+        <v>2321.9670000000001</v>
       </c>
       <c r="H19">
-        <v>22925.205000000002</v>
+        <v>6578.9780000000001</v>
       </c>
       <c r="I19">
-        <v>468.60199999999998</v>
+        <v>255.66399999999999</v>
       </c>
       <c r="J19">
-        <v>12240.749</v>
+        <v>5471.1530000000002</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-7.1159999999999997</v>
+        <v>-16.838999999999999</v>
       </c>
       <c r="N19">
-        <v>5924.6629999999996</v>
+        <v>2174.06</v>
       </c>
       <c r="O19">
-        <v>20387.987000000001</v>
+        <v>8408.7950000000001</v>
       </c>
       <c r="P19">
-        <v>14422.924000000001</v>
+        <v>5979.9390000000003</v>
       </c>
       <c r="Q19">
-        <v>-6054.5990000000002</v>
+        <v>141.22300000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2537.2179999999998</v>
+        <v>-1829.817</v>
       </c>
       <c r="U19">
-        <v>1049.8969999999999</v>
+        <v>845.78300000000002</v>
       </c>
       <c r="V19">
-        <v>891.59699999999998</v>
+        <v>477.17500000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>211.39599999999999</v>
+        <v>-56.93</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>456.69900000000001</v>
       </c>
       <c r="Z19">
-        <v>1788.953</v>
+        <v>27.145</v>
       </c>
       <c r="AA19">
-        <v>351.48500000000001</v>
+        <v>317.524</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>324.423</v>
+        <v>855.52700000000004</v>
       </c>
       <c r="D20">
-        <v>3832.4250000000002</v>
+        <v>2095.4859999999999</v>
       </c>
       <c r="E20">
-        <v>1018.7089999999999</v>
+        <v>468.81599999999997</v>
       </c>
       <c r="F20">
-        <v>1323.1759999999999</v>
+        <v>947.18799999999999</v>
       </c>
       <c r="G20">
-        <v>13278.282999999999</v>
+        <v>2358.087</v>
       </c>
       <c r="H20">
-        <v>22762.687999999998</v>
+        <v>7281.4930000000004</v>
       </c>
       <c r="I20">
-        <v>447.14100000000002</v>
+        <v>254.471</v>
       </c>
       <c r="J20">
-        <v>12235.118</v>
+        <v>5466.9639999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5309.2349999999997</v>
+        <v>2089.1370000000002</v>
       </c>
       <c r="O20">
-        <v>19840.254000000001</v>
+        <v>8253.5529999999999</v>
       </c>
       <c r="P20">
-        <v>13767.674000000001</v>
+        <v>5963.4120000000003</v>
       </c>
       <c r="Q20">
-        <v>-355.64800000000002</v>
+        <v>69.695999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2922.4340000000002</v>
+        <v>-972.06</v>
       </c>
       <c r="U20">
-        <v>694.24900000000002</v>
+        <v>915.47900000000004</v>
       </c>
       <c r="V20">
-        <v>557.55899999999997</v>
+        <v>390.25</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-640.57100000000003</v>
+        <v>-102.19</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>447.74799999999999</v>
       </c>
       <c r="Z20">
-        <v>-8.83</v>
+        <v>-109.387</v>
       </c>
       <c r="AA20">
-        <v>324.423</v>
+        <v>855.52700000000004</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>196.47900000000001</v>
+        <v>208.864</v>
       </c>
       <c r="D21">
-        <v>3733.5650000000001</v>
+        <v>2128.221</v>
       </c>
       <c r="E21">
-        <v>905.14099999999996</v>
+        <v>471.01100000000002</v>
       </c>
       <c r="F21">
-        <v>1285.086</v>
+        <v>999.29399999999998</v>
       </c>
       <c r="G21">
-        <v>13625.813</v>
+        <v>2503.7240000000002</v>
       </c>
       <c r="H21">
-        <v>23102.958999999999</v>
+        <v>7533.2169999999996</v>
       </c>
       <c r="I21">
-        <v>444.98399999999998</v>
+        <v>290.42500000000001</v>
       </c>
       <c r="J21">
-        <v>12228.276</v>
+        <v>5466.9639999999999</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5265.9110000000001</v>
+        <v>2183.1779999999999</v>
       </c>
       <c r="O21">
-        <v>19973.097000000002</v>
+        <v>8318.3919999999998</v>
       </c>
       <c r="P21">
-        <v>13761.615</v>
+        <v>5951.1220000000003</v>
       </c>
       <c r="Q21">
-        <v>550.13199999999995</v>
+        <v>97.043000000000006</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3129.8620000000001</v>
+        <v>-785.17499999999995</v>
       </c>
       <c r="U21">
-        <v>1244.3810000000001</v>
+        <v>1012.522</v>
       </c>
       <c r="V21">
-        <v>780.88099999999997</v>
+        <v>504.59399999999999</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-3.891</v>
+        <v>-29.815999999999999</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>438.21699999999998</v>
       </c>
       <c r="Z21">
-        <v>28.065999999999999</v>
+        <v>-34.463000000000001</v>
       </c>
       <c r="AA21">
-        <v>196.47900000000001</v>
+        <v>208.864</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-125.295</v>
+        <v>132.625</v>
       </c>
       <c r="D22">
-        <v>3778.683</v>
+        <v>2199.4679999999998</v>
       </c>
       <c r="E22">
-        <v>864.02800000000002</v>
+        <v>478.41399999999999</v>
       </c>
       <c r="F22">
-        <v>1346.59</v>
+        <v>980.28</v>
       </c>
       <c r="G22">
-        <v>3543.2429999999999</v>
+        <v>2397.0450000000001</v>
       </c>
       <c r="H22">
-        <v>22886.71</v>
+        <v>7410.21</v>
       </c>
       <c r="I22">
-        <v>470.226</v>
+        <v>239.78800000000001</v>
       </c>
       <c r="J22">
-        <v>12221.924999999999</v>
+        <v>5466.9639999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5162.9399999999996</v>
+        <v>2150.0709999999999</v>
       </c>
       <c r="O22">
-        <v>19854.68</v>
+        <v>8276.8340000000007</v>
       </c>
       <c r="P22">
-        <v>13755.924999999999</v>
+        <v>5935.3010000000004</v>
       </c>
       <c r="Q22">
-        <v>-191.22300000000001</v>
+        <v>-396.85300000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="T22">
-        <v>3032.03</v>
+        <v>-866.62400000000002</v>
       </c>
       <c r="U22">
-        <v>1053.1579999999999</v>
+        <v>615.66899999999998</v>
       </c>
       <c r="V22">
-        <v>206.04300000000001</v>
+        <v>402.05500000000001</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>19.797000000000001</v>
+        <v>-213.68700000000001</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>431.86700000000002</v>
       </c>
       <c r="Z22">
-        <v>-201.285</v>
+        <v>-27.074000000000002</v>
       </c>
       <c r="AA22">
-        <v>-125.295</v>
+        <v>132.625</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>399.89100000000002</v>
+        <v>147.28100000000001</v>
       </c>
       <c r="D23">
-        <v>3827.4740000000002</v>
+        <v>2299.3910000000001</v>
       </c>
       <c r="E23">
-        <v>806.09100000000001</v>
+        <v>520.30200000000002</v>
       </c>
       <c r="F23">
-        <v>1332.8520000000001</v>
+        <v>1050.123</v>
       </c>
       <c r="G23">
-        <v>2557.5010000000002</v>
+        <v>3823.9940000000001</v>
       </c>
       <c r="H23">
-        <v>22009.374</v>
+        <v>8934.67</v>
       </c>
       <c r="I23">
-        <v>561.34699999999998</v>
+        <v>275.685</v>
       </c>
       <c r="J23">
-        <v>12215.94</v>
+        <v>6525</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-1510.348</v>
+        <v>-454.35599999999999</v>
       </c>
       <c r="N23">
-        <v>3844.973</v>
+        <v>2385.8490000000002</v>
       </c>
       <c r="O23">
-        <v>18589.035</v>
+        <v>9625.0669999999991</v>
       </c>
       <c r="P23">
-        <v>12251.138999999999</v>
+        <v>6980.9449999999997</v>
       </c>
       <c r="Q23">
-        <v>-344.12700000000001</v>
+        <v>1264.0640000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3420.3389999999999</v>
+        <v>-690.39700000000005</v>
       </c>
       <c r="U23">
-        <v>708.97199999999998</v>
+        <v>1879.7329999999999</v>
       </c>
       <c r="V23">
-        <v>928.03599999999994</v>
+        <v>630.11900000000003</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-1537.7139999999999</v>
+        <v>1027.798</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>420.2</v>
       </c>
       <c r="Z23">
-        <v>417.61</v>
+        <v>-98.314999999999998</v>
       </c>
       <c r="AA23">
-        <v>399.89100000000002</v>
+        <v>147.28100000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>424.10300000000001</v>
+        <v>168.779</v>
       </c>
       <c r="D24">
-        <v>3864.5909999999999</v>
+        <v>2466.1550000000002</v>
       </c>
       <c r="E24">
-        <v>861.17600000000004</v>
+        <v>573.15700000000004</v>
       </c>
       <c r="F24">
-        <v>1373.057</v>
+        <v>1109.732</v>
       </c>
       <c r="G24">
-        <v>4913.0709999999999</v>
+        <v>3963.5369999999998</v>
       </c>
       <c r="H24">
-        <v>24449.794999999998</v>
+        <v>9104.6090000000004</v>
       </c>
       <c r="I24">
-        <v>575.202</v>
+        <v>250.196</v>
       </c>
       <c r="J24">
-        <v>14201.56</v>
+        <v>6525</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3760.7930000000001</v>
+        <v>2374.145</v>
       </c>
       <c r="O24">
-        <v>20624.992999999999</v>
+        <v>9616.1119999999992</v>
       </c>
       <c r="P24">
-        <v>14237.073</v>
+        <v>6986.3869999999997</v>
       </c>
       <c r="Q24">
-        <v>2640.3009999999999</v>
+        <v>-16.149999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3824.8020000000001</v>
+        <v>-511.50299999999999</v>
       </c>
       <c r="U24">
-        <v>3349.364</v>
+        <v>1863.5830000000001</v>
       </c>
       <c r="V24">
-        <v>663.61400000000003</v>
+        <v>519.11599999999999</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>1968.588</v>
+        <v>-4.5</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>424.17899999999997</v>
       </c>
       <c r="Z24">
-        <v>9.5939999999999994</v>
+        <v>-178.98500000000001</v>
       </c>
       <c r="AA24">
-        <v>424.10300000000001</v>
+        <v>168.779</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>318.452</v>
+        <v>139.61600000000001</v>
       </c>
       <c r="D25">
-        <v>3767.4720000000002</v>
+        <v>2475.2910000000002</v>
       </c>
       <c r="E25">
-        <v>815.87300000000005</v>
+        <v>582.87699999999995</v>
       </c>
       <c r="F25">
-        <v>1304.548</v>
+        <v>1119.2619999999999</v>
       </c>
       <c r="G25">
-        <v>7900.9880000000003</v>
+        <v>4192.1419999999998</v>
       </c>
       <c r="H25">
-        <v>27576.508999999998</v>
+        <v>9351.5779999999995</v>
       </c>
       <c r="I25">
-        <v>610.93100000000004</v>
+        <v>299.05399999999997</v>
       </c>
       <c r="J25">
-        <v>15534.244000000001</v>
+        <v>6525</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4590.1409999999996</v>
+        <v>2495.8980000000001</v>
       </c>
       <c r="O25">
-        <v>22967.67</v>
+        <v>9716.4660000000003</v>
       </c>
       <c r="P25">
-        <v>16471.73</v>
+        <v>6977.2849999999999</v>
       </c>
       <c r="Q25">
-        <v>1434.787</v>
+        <v>-108.29600000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4608.8389999999999</v>
+        <v>-364.88799999999998</v>
       </c>
       <c r="U25">
-        <v>4784.3</v>
+        <v>1755.287</v>
       </c>
       <c r="V25">
-        <v>599.81200000000001</v>
+        <v>556.79899999999998</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>2715.7860000000001</v>
+        <v>-2.8159999999999998</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>414.40699999999998</v>
       </c>
       <c r="Z25">
-        <v>-75.974000000000004</v>
+        <v>-287.88200000000001</v>
       </c>
       <c r="AA25">
-        <v>318.452</v>
+        <v>139.61600000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>355.49299999999999</v>
+        <v>152.596</v>
       </c>
       <c r="D26">
-        <v>3752.7649999999999</v>
+        <v>2577.6489999999999</v>
       </c>
       <c r="E26">
-        <v>777.90800000000002</v>
+        <v>665.149</v>
       </c>
       <c r="F26">
-        <v>1300.0930000000001</v>
+        <v>1160.2550000000001</v>
       </c>
       <c r="G26">
-        <v>8280.3870000000006</v>
+        <v>4599.5410000000002</v>
       </c>
       <c r="H26">
-        <v>27914.292000000001</v>
+        <v>9768.6959999999999</v>
       </c>
       <c r="I26">
-        <v>524.70399999999995</v>
+        <v>283.471</v>
       </c>
       <c r="J26">
-        <v>15541.736000000001</v>
+        <v>5525</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>4592.8320000000003</v>
+        <v>3591.4740000000002</v>
       </c>
       <c r="O26">
-        <v>22983.334999999999</v>
+        <v>9988.0789999999997</v>
       </c>
       <c r="P26">
-        <v>16483.638999999999</v>
+        <v>6967.3209999999999</v>
       </c>
       <c r="Q26">
-        <v>539.55899999999997</v>
+        <v>167.81800000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="T26">
-        <v>4930.9570000000003</v>
+        <v>-219.38300000000001</v>
       </c>
       <c r="U26">
-        <v>5324.5029999999997</v>
+        <v>1923.105</v>
       </c>
       <c r="V26">
-        <v>662.78499999999997</v>
+        <v>573.20799999999997</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>7.27</v>
+        <v>1.665</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>403.85700000000003</v>
       </c>
       <c r="Z26">
-        <v>172.352</v>
+        <v>-24.928000000000001</v>
       </c>
       <c r="AA26">
-        <v>355.49299999999999</v>
+        <v>152.596</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>375.71499999999997</v>
+        <v>157.13999999999999</v>
       </c>
       <c r="D27">
-        <v>3680.3609999999999</v>
+        <v>2644.9850000000001</v>
       </c>
       <c r="E27">
-        <v>704.24599999999998</v>
+        <v>687.01499999999999</v>
       </c>
       <c r="F27">
-        <v>1212.008</v>
+        <v>1190.7149999999999</v>
       </c>
       <c r="G27">
-        <v>9596.6309999999994</v>
+        <v>3815.1410000000001</v>
       </c>
       <c r="H27">
-        <v>29448.199000000001</v>
+        <v>9066.0130000000008</v>
       </c>
       <c r="I27">
-        <v>556.31899999999996</v>
+        <v>352.238</v>
       </c>
       <c r="J27">
-        <v>16292.665999999999</v>
+        <v>5525</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-9.1620000000000008</v>
+        <v>-1009.331</v>
       </c>
       <c r="N27">
-        <v>4570.1289999999999</v>
+        <v>2664.8820000000001</v>
       </c>
       <c r="O27">
-        <v>23957.673999999999</v>
+        <v>9096.4869999999992</v>
       </c>
       <c r="P27">
-        <v>17235.116999999998</v>
+        <v>5957.9750000000004</v>
       </c>
       <c r="Q27">
-        <v>1465.6969999999999</v>
+        <v>-957.90800000000002</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5490.5249999999996</v>
+        <v>-30.474</v>
       </c>
       <c r="U27">
-        <v>6782.2520000000004</v>
+        <v>965.197</v>
       </c>
       <c r="V27">
-        <v>936.76700000000005</v>
+        <v>504.46899999999999</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>983.95600000000002</v>
+        <v>-1002.576</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>394.36099999999999</v>
       </c>
       <c r="Z27">
-        <v>-71.093999999999994</v>
+        <v>-131.53399999999999</v>
       </c>
       <c r="AA27">
-        <v>375.71499999999997</v>
+        <v>157.13999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>40.116</v>
+        <v>224.19900000000001</v>
       </c>
       <c r="D28">
-        <v>3643.6320000000001</v>
+        <v>2760.0079999999998</v>
       </c>
       <c r="E28">
-        <v>737.029</v>
+        <v>706.96199999999999</v>
       </c>
       <c r="F28">
-        <v>1192.3530000000001</v>
+        <v>1269.354</v>
       </c>
       <c r="G28">
-        <v>3713.0320000000002</v>
+        <v>3943.9070000000002</v>
       </c>
       <c r="H28">
-        <v>29917.559000000001</v>
+        <v>9394.3850000000002</v>
       </c>
       <c r="I28">
-        <v>328.09800000000001</v>
+        <v>274.14100000000002</v>
       </c>
       <c r="J28">
-        <v>15107.048000000001</v>
+        <v>5557.1859999999997</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>5901.6049999999996</v>
+        <v>2598.8389999999999</v>
       </c>
       <c r="O28">
-        <v>24328.991000000002</v>
+        <v>9167.9750000000004</v>
       </c>
       <c r="P28">
-        <v>17248.027999999998</v>
+        <v>6145.2950000000001</v>
       </c>
       <c r="Q28">
-        <v>-4424.8320000000003</v>
+        <v>111.679</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5588.5680000000002</v>
+        <v>226.41</v>
       </c>
       <c r="U28">
-        <v>2365.893</v>
+        <v>1076.876</v>
       </c>
       <c r="V28">
-        <v>556.32899999999995</v>
+        <v>684.99699999999996</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-0.52</v>
+        <v>12.936</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>540.899</v>
       </c>
       <c r="Z28">
-        <v>1.1599999999999999</v>
+        <v>-119.432</v>
       </c>
       <c r="AA28">
-        <v>40.116</v>
+        <v>224.19900000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>297.375</v>
+        <v>199.68</v>
       </c>
       <c r="D29">
-        <v>3583.4540000000002</v>
+        <v>2794.3270000000002</v>
       </c>
       <c r="E29">
-        <v>703.63099999999997</v>
+        <v>700.49900000000002</v>
       </c>
       <c r="F29">
-        <v>1148.3140000000001</v>
+        <v>1267.144</v>
       </c>
       <c r="G29">
-        <v>3122.5509999999999</v>
+        <v>4270.2340000000004</v>
       </c>
       <c r="H29">
-        <v>29520.855</v>
+        <v>9745.9629999999997</v>
       </c>
       <c r="I29">
-        <v>374.13</v>
+        <v>351.59699999999998</v>
       </c>
       <c r="J29">
-        <v>15119.419</v>
+        <v>5556.62</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4954.3580000000002</v>
+        <v>2724.54</v>
       </c>
       <c r="O29">
-        <v>23600.811000000002</v>
+        <v>9286.1409999999996</v>
       </c>
       <c r="P29">
-        <v>16360.606</v>
+        <v>6133.7049999999999</v>
       </c>
       <c r="Q29">
-        <v>-782.79600000000005</v>
+        <v>325.19499999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5920.0439999999999</v>
+        <v>459.822</v>
       </c>
       <c r="U29">
-        <v>1582.85</v>
+        <v>1605.8409999999999</v>
       </c>
       <c r="V29">
-        <v>733.98699999999997</v>
+        <v>707.18899999999996</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-905.279</v>
+        <v>-9.6910000000000007</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>529.18899999999996</v>
       </c>
       <c r="Z29">
-        <v>-195.59800000000001</v>
+        <v>-47.968000000000004</v>
       </c>
       <c r="AA29">
-        <v>297.375</v>
+        <v>199.68</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1385.4829999999999</v>
+        <v>175.035</v>
       </c>
       <c r="D30">
-        <v>3483.9279999999999</v>
+        <v>2891.0549999999998</v>
       </c>
       <c r="E30">
-        <v>653.94799999999998</v>
+        <v>699.101</v>
       </c>
       <c r="F30">
-        <v>1091.4369999999999</v>
+        <v>1280.444</v>
       </c>
       <c r="G30">
-        <v>3285.0230000000001</v>
+        <v>4245.1379999999999</v>
       </c>
       <c r="H30">
-        <v>29773.766</v>
+        <v>10086.529</v>
       </c>
       <c r="I30">
-        <v>393.30500000000001</v>
+        <v>314.82499999999999</v>
       </c>
       <c r="J30">
-        <v>15030.123</v>
+        <v>4025</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4828.0039999999999</v>
+        <v>4225.1409999999996</v>
       </c>
       <c r="O30">
-        <v>22452.47</v>
+        <v>9446.5400000000009</v>
       </c>
       <c r="P30">
-        <v>16202.965</v>
+        <v>6125.7039999999997</v>
       </c>
       <c r="Q30">
-        <v>-103.352</v>
+        <v>-309.09399999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="T30">
-        <v>7321.2960000000003</v>
+        <v>639.98900000000003</v>
       </c>
       <c r="U30">
-        <v>1479.508</v>
+        <v>919.54200000000003</v>
       </c>
       <c r="V30">
-        <v>552.42399999999998</v>
+        <v>720.06500000000005</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-181.39400000000001</v>
+        <v>23.315000000000001</v>
       </c>
       <c r="Y30">
-        <v>104.318</v>
+        <v>550.25</v>
       </c>
       <c r="Z30">
-        <v>-184.95</v>
+        <v>-315.00200000000001</v>
       </c>
       <c r="AA30">
-        <v>1385.4829999999999</v>
+        <v>175.035</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>367.56</v>
+        <v>258.58300000000003</v>
       </c>
       <c r="D31">
-        <v>3458.4870000000001</v>
+        <v>2844.3939999999998</v>
       </c>
       <c r="E31">
-        <v>601.673</v>
+        <v>948.38400000000001</v>
       </c>
       <c r="F31">
-        <v>1072.336</v>
+        <v>1251.2349999999999</v>
       </c>
       <c r="G31">
-        <v>3465.5610000000001</v>
+        <v>3130.3220000000001</v>
       </c>
       <c r="H31">
-        <v>30154.933000000001</v>
+        <v>6865.4380000000001</v>
       </c>
       <c r="I31">
-        <v>331.38799999999998</v>
+        <v>737.70799999999997</v>
       </c>
       <c r="J31">
-        <v>15152.075999999999</v>
+        <v>4025</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-66.930999999999997</v>
+        <v>-1.9790000000000001</v>
       </c>
       <c r="N31">
-        <v>4692.3370000000004</v>
+        <v>4730.8620000000001</v>
       </c>
       <c r="O31">
-        <v>22428.468000000001</v>
+        <v>9303.2019999999993</v>
       </c>
       <c r="P31">
-        <v>16160.977999999999</v>
+        <v>5741.308</v>
       </c>
       <c r="Q31">
-        <v>635.85500000000002</v>
+        <v>-183.06</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>7726.4650000000001</v>
+        <v>-2437.7640000000001</v>
       </c>
       <c r="U31">
-        <v>2115.3490000000002</v>
+        <v>989.678</v>
       </c>
       <c r="V31">
-        <v>751.55100000000004</v>
+        <v>905.73699999999997</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-59.098999999999997</v>
+        <v>-586.19600000000003</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>206.238</v>
       </c>
       <c r="Z31">
-        <v>304.31400000000002</v>
+        <v>-233.184</v>
       </c>
       <c r="AA31">
-        <v>367.56</v>
+        <v>258.58300000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>438.71699999999998</v>
+        <v>335.88499999999999</v>
       </c>
       <c r="D32">
-        <v>3460.8449999999998</v>
+        <v>2914.99</v>
       </c>
       <c r="E32">
-        <v>641.88800000000003</v>
+        <v>741.26499999999999</v>
       </c>
       <c r="F32">
-        <v>1110.1410000000001</v>
+        <v>1343.078</v>
       </c>
       <c r="G32">
-        <v>2743.71</v>
+        <v>3948.18</v>
       </c>
       <c r="H32">
-        <v>29650.011999999999</v>
+        <v>7680.5929999999998</v>
       </c>
       <c r="I32">
-        <v>284.767</v>
+        <v>406.755</v>
       </c>
       <c r="J32">
-        <v>15109.6</v>
+        <v>4801.9290000000001</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3631.5160000000001</v>
+        <v>4414.1019999999999</v>
       </c>
       <c r="O32">
-        <v>21423.305</v>
+        <v>9772.3539999999994</v>
       </c>
       <c r="P32">
-        <v>15144.424000000001</v>
+        <v>6494.0839999999998</v>
       </c>
       <c r="Q32">
-        <v>-1107.5540000000001</v>
+        <v>13.403</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>8226.7070000000003</v>
+        <v>-2091.761</v>
       </c>
       <c r="U32">
-        <v>1007.784</v>
+        <v>1357.296</v>
       </c>
       <c r="V32">
-        <v>573.78700000000003</v>
+        <v>436.15199999999999</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-1040.4749999999999</v>
+        <v>759.476</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>181.32300000000001</v>
       </c>
       <c r="Z32">
-        <v>-367.11</v>
+        <v>-208.72399999999999</v>
       </c>
       <c r="AA32">
-        <v>438.71699999999998</v>
+        <v>335.88499999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>431.73399999999998</v>
+        <v>91.894999999999996</v>
       </c>
       <c r="D33">
-        <v>3395.1410000000001</v>
+        <v>2936.7809999999999</v>
       </c>
       <c r="E33">
-        <v>670.82600000000002</v>
+        <v>792.90499999999997</v>
       </c>
       <c r="F33">
-        <v>1086.251</v>
+        <v>1195.4159999999999</v>
       </c>
       <c r="G33">
-        <v>3038.9090000000001</v>
+        <v>2856.8359999999998</v>
       </c>
       <c r="H33">
-        <v>30137.41</v>
+        <v>7177.2479999999996</v>
       </c>
       <c r="I33">
-        <v>269.51499999999999</v>
+        <v>589.29200000000003</v>
       </c>
       <c r="J33">
-        <v>13790.114</v>
+        <v>4793.6030000000001</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4877.5969999999998</v>
+        <v>4175.0339999999997</v>
       </c>
       <c r="O33">
-        <v>21454.201000000001</v>
+        <v>9306.7459999999992</v>
       </c>
       <c r="P33">
-        <v>15157.23</v>
+        <v>5981.0879999999997</v>
       </c>
       <c r="Q33">
-        <v>221.905</v>
+        <v>222.05699999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>8683.2090000000007</v>
+        <v>-2129.498</v>
       </c>
       <c r="U33">
-        <v>1229.7170000000001</v>
+        <v>971.94299999999998</v>
       </c>
       <c r="V33">
-        <v>690.39599999999996</v>
+        <v>483.49799999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-7.9290000000000003</v>
+        <v>-610.91499999999996</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>179.191</v>
       </c>
       <c r="Z33">
-        <v>-63.957999999999998</v>
+        <v>661.697</v>
       </c>
       <c r="AA33">
-        <v>431.73399999999998</v>
+        <v>91.894999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>337.08</v>
+        <v>216.584</v>
       </c>
       <c r="D34">
-        <v>3306.8290000000002</v>
+        <v>2921.0219999999999</v>
       </c>
       <c r="E34">
-        <v>639.85500000000002</v>
+        <v>820.70899999999995</v>
       </c>
       <c r="F34">
-        <v>1035.5719999999999</v>
+        <v>1174.9490000000001</v>
       </c>
       <c r="G34">
-        <v>3289.2049999999999</v>
+        <v>2097.9839999999999</v>
       </c>
       <c r="H34">
-        <v>30587.011999999999</v>
+        <v>6460.0469999999996</v>
       </c>
       <c r="I34">
-        <v>233.75299999999999</v>
+        <v>471.84500000000003</v>
       </c>
       <c r="J34">
-        <v>13743.8</v>
+        <v>4969.4229999999998</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4776.1319999999996</v>
+        <v>2980.0030000000002</v>
       </c>
       <c r="O34">
-        <v>21532.755000000001</v>
+        <v>8409.1530000000002</v>
       </c>
       <c r="P34">
-        <v>15152.777</v>
+        <v>5007.7560000000003</v>
       </c>
       <c r="Q34">
-        <v>-342.18299999999999</v>
+        <v>-873.36800000000005</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="T34">
-        <v>9054.2569999999996</v>
+        <v>-1949.106</v>
       </c>
       <c r="U34">
-        <v>887.346</v>
+        <v>98.573999999999998</v>
       </c>
       <c r="V34">
-        <v>502.10700000000003</v>
+        <v>362.95699999999999</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-27.042000000000002</v>
+        <v>-974.20600000000002</v>
       </c>
       <c r="Y34">
-        <v>66.983999999999995</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-546.92600000000004</v>
+        <v>-54.182000000000002</v>
       </c>
       <c r="AA34">
-        <v>337.08</v>
+        <v>216.584</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>339.76100000000002</v>
+        <v>312.68400000000003</v>
       </c>
       <c r="D35">
-        <v>3187.1439999999998</v>
+        <v>2905.3209999999999</v>
       </c>
       <c r="E35">
-        <v>581.68499999999995</v>
+        <v>799.346</v>
       </c>
       <c r="F35">
-        <v>995.73500000000001</v>
+        <v>1175.83</v>
       </c>
       <c r="G35">
-        <v>3592.2170000000001</v>
+        <v>2589.105</v>
       </c>
       <c r="H35">
-        <v>31686.377</v>
+        <v>7063.4110000000001</v>
       </c>
       <c r="I35">
-        <v>277.36700000000002</v>
+        <v>536.95500000000004</v>
       </c>
       <c r="J35">
-        <v>13783.014999999999</v>
+        <v>4791.79</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-28.997</v>
+        <v>-5.093</v>
       </c>
       <c r="N35">
-        <v>4955.0559999999996</v>
+        <v>3011.8159999999998</v>
       </c>
       <c r="O35">
-        <v>22253.718000000001</v>
+        <v>8730.3379999999997</v>
       </c>
       <c r="P35">
-        <v>15871.207</v>
+        <v>5133.3770000000004</v>
       </c>
       <c r="Q35">
-        <v>697.41399999999999</v>
+        <v>165.36199999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>9432.6589999999997</v>
+        <v>-1666.9269999999999</v>
       </c>
       <c r="U35">
-        <v>1576.672</v>
+        <v>263.93599999999998</v>
       </c>
       <c r="V35">
-        <v>732.92899999999997</v>
+        <v>901.21600000000001</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>4.7530000000000001</v>
+        <v>-22.594999999999999</v>
       </c>
       <c r="Y35">
-        <v>534.245</v>
+        <v>293.18700000000001</v>
       </c>
       <c r="Z35">
-        <v>367.87099999999998</v>
+        <v>-461.27199999999999</v>
       </c>
       <c r="AA35">
-        <v>339.76100000000002</v>
+        <v>312.68400000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>317.04300000000001</v>
+        <v>63.42</v>
       </c>
       <c r="D36">
-        <v>3211.3119999999999</v>
+        <v>2903.701</v>
       </c>
       <c r="E36">
-        <v>584.11599999999999</v>
+        <v>846.60400000000004</v>
       </c>
       <c r="F36">
-        <v>1018.263</v>
+        <v>1176.829</v>
       </c>
       <c r="G36">
-        <v>3917.855</v>
+        <v>2784.35</v>
       </c>
       <c r="H36">
-        <v>32284.116000000002</v>
+        <v>7265.76</v>
       </c>
       <c r="I36">
-        <v>361.048</v>
+        <v>456.26600000000002</v>
       </c>
       <c r="J36">
-        <v>12709.352999999999</v>
+        <v>4790.2730000000001</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>6195.5010000000002</v>
+        <v>3024.84</v>
       </c>
       <c r="O36">
-        <v>22448.909</v>
+        <v>8785.7090000000007</v>
       </c>
       <c r="P36">
-        <v>15843.361000000001</v>
+        <v>5126.6559999999999</v>
       </c>
       <c r="Q36">
-        <v>330.38099999999997</v>
+        <v>-151.07499999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>9835.2070000000003</v>
+        <v>-1519.9490000000001</v>
       </c>
       <c r="U36">
-        <v>1901.0640000000001</v>
+        <v>112.861</v>
       </c>
       <c r="V36">
-        <v>613.39</v>
+        <v>344.62700000000001</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>38.292999999999999</v>
+        <v>-5.9390000000000001</v>
       </c>
       <c r="Y36">
-        <v>493.57400000000001</v>
+        <v>288.517</v>
       </c>
       <c r="Z36">
-        <v>-12.544</v>
+        <v>-212.01499999999999</v>
       </c>
       <c r="AA36">
-        <v>317.04300000000001</v>
+        <v>63.42</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>353.30399999999997</v>
+        <v>80.561999999999998</v>
       </c>
       <c r="D37">
-        <v>3168.3629999999998</v>
+        <v>2892.1469999999999</v>
       </c>
       <c r="E37">
-        <v>577.79700000000003</v>
+        <v>819.93299999999999</v>
       </c>
       <c r="F37">
-        <v>1071.0319999999999</v>
+        <v>1095.933</v>
       </c>
       <c r="G37">
-        <v>2731.3919999999998</v>
+        <v>4007.1390000000001</v>
       </c>
       <c r="H37">
-        <v>31771.439999999999</v>
+        <v>8658.7389999999996</v>
       </c>
       <c r="I37">
-        <v>317.69</v>
+        <v>559.77599999999995</v>
       </c>
       <c r="J37">
-        <v>12772.558000000001</v>
+        <v>5789.152</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4566.6540000000005</v>
+        <v>3296.5729999999999</v>
       </c>
       <c r="O37">
-        <v>21074.206999999999</v>
+        <v>10040.111000000001</v>
       </c>
       <c r="P37">
-        <v>14284.739</v>
+        <v>6127.8220000000001</v>
       </c>
       <c r="Q37">
-        <v>-451.9</v>
+        <v>42.709000000000003</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>10697.233</v>
+        <v>-1381.3720000000001</v>
       </c>
       <c r="U37">
-        <v>1403.3579999999999</v>
+        <v>155.57</v>
       </c>
       <c r="V37">
-        <v>682.31</v>
+        <v>645.88599999999997</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-1353.5709999999999</v>
+        <v>963.84699999999998</v>
       </c>
       <c r="Y37">
-        <v>281.017</v>
+        <v>286.47699999999998</v>
       </c>
       <c r="Z37">
-        <v>637.88800000000003</v>
+        <v>-1313.962</v>
       </c>
       <c r="AA37">
-        <v>353.30399999999997</v>
+        <v>80.561999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>389.404</v>
+        <v>178.87899999999999</v>
       </c>
       <c r="D38">
-        <v>3240.8649999999998</v>
+        <v>2962.982</v>
       </c>
       <c r="E38">
-        <v>588.35799999999995</v>
+        <v>779.87099999999998</v>
       </c>
       <c r="F38">
-        <v>1172.683</v>
+        <v>1192.7750000000001</v>
       </c>
       <c r="G38">
-        <v>4015.1</v>
+        <v>3475.9520000000002</v>
       </c>
       <c r="H38">
-        <v>33230.934999999998</v>
+        <v>8295.3430000000008</v>
       </c>
       <c r="I38">
-        <v>280.64499999999998</v>
+        <v>520.27800000000002</v>
       </c>
       <c r="J38">
-        <v>12796.522999999999</v>
+        <v>6470.0460000000003</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4496.0910000000003</v>
+        <v>3287.2809999999999</v>
       </c>
       <c r="O38">
-        <v>21114.788</v>
+        <v>10387.031000000001</v>
       </c>
       <c r="P38">
-        <v>14282.3</v>
+        <v>6496.5640000000003</v>
       </c>
       <c r="Q38">
-        <v>1040.501</v>
+        <v>-49.725999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>16000</v>
+        <v>24500</v>
       </c>
       <c r="T38">
-        <v>12116.147000000001</v>
+        <v>-2091.6880000000001</v>
       </c>
       <c r="U38">
-        <v>2443.643</v>
+        <v>105.84399999999999</v>
       </c>
       <c r="V38">
-        <v>633.77200000000005</v>
+        <v>302.81400000000002</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>982.35599999999999</v>
+        <v>-517.03</v>
       </c>
       <c r="Y38">
-        <v>256.50099999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-223.107</v>
+        <v>477.43299999999999</v>
       </c>
       <c r="AA38">
-        <v>389.404</v>
+        <v>178.87899999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>73.099000000000004</v>
+        <v>230.947</v>
       </c>
       <c r="D39">
-        <v>3217.3890000000001</v>
+        <v>3057.395</v>
       </c>
       <c r="E39">
-        <v>544.10599999999999</v>
+        <v>750.96299999999997</v>
       </c>
       <c r="F39">
-        <v>1131.2719999999999</v>
+        <v>1262.7639999999999</v>
       </c>
       <c r="G39">
-        <v>4642.2889999999998</v>
+        <v>3774.9969999999998</v>
       </c>
       <c r="H39">
-        <v>33673.294999999998</v>
+        <v>8688.9860000000008</v>
       </c>
       <c r="I39">
-        <v>356.55500000000001</v>
+        <v>508.89299999999997</v>
       </c>
       <c r="J39">
-        <v>12823.798000000001</v>
+        <v>6462.8559999999998</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-16.713000000000001</v>
+        <v>-7.0789999999999997</v>
       </c>
       <c r="N39">
-        <v>4630.9870000000001</v>
+        <v>3469.886</v>
       </c>
       <c r="O39">
-        <v>21435.715</v>
+        <v>10539.24</v>
       </c>
       <c r="P39">
-        <v>14291.611000000001</v>
+        <v>6489.4849999999997</v>
       </c>
       <c r="Q39">
-        <v>383.63099999999997</v>
+        <v>-5.9269999999999996</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>12237.58</v>
+        <v>-1850.2539999999999</v>
       </c>
       <c r="U39">
-        <v>2827.0509999999999</v>
+        <v>99.917000000000002</v>
       </c>
       <c r="V39">
-        <v>875.95299999999997</v>
+        <v>726.01400000000001</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-11.186</v>
+        <v>-20.867000000000001</v>
       </c>
       <c r="Y39">
-        <v>237.68600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-144.21199999999999</v>
+        <v>-287.69900000000001</v>
       </c>
       <c r="AA39">
-        <v>73.099000000000004</v>
+        <v>230.947</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>452.34300000000002</v>
+        <v>256.99</v>
       </c>
       <c r="D40">
-        <v>3187.09</v>
+        <v>3169.0419999999999</v>
       </c>
       <c r="E40">
-        <v>531.827</v>
+        <v>826.79300000000001</v>
       </c>
       <c r="F40">
-        <v>1200.463</v>
+        <v>1341.6379999999999</v>
       </c>
       <c r="G40">
-        <v>4108.5739999999996</v>
+        <v>4101.5050000000001</v>
       </c>
       <c r="H40">
-        <v>33497.474000000002</v>
+        <v>9031.0190000000002</v>
       </c>
       <c r="I40">
-        <v>372.26600000000002</v>
+        <v>495.63600000000002</v>
       </c>
       <c r="J40">
-        <v>10849.082</v>
+        <v>6477.8760000000002</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5780.21</v>
+        <v>3492.9430000000002</v>
       </c>
       <c r="O40">
-        <v>20732.121999999999</v>
+        <v>10611.325999999999</v>
       </c>
       <c r="P40">
-        <v>13195.6</v>
+        <v>6506.57</v>
       </c>
       <c r="Q40">
-        <v>-236.785</v>
+        <v>208.53</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>12765.352000000001</v>
+        <v>-1580.307</v>
       </c>
       <c r="U40">
-        <v>2589.817</v>
+        <v>308.447</v>
       </c>
       <c r="V40">
-        <v>834.94299999999998</v>
+        <v>389.84699999999998</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-1115.3130000000001</v>
+        <v>-2.5739999999999998</v>
       </c>
       <c r="Y40">
-        <v>214.483</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>519.60799999999995</v>
+        <v>41.581000000000003</v>
       </c>
       <c r="AA40">
-        <v>452.34300000000002</v>
+        <v>256.99</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>504.59899999999999</v>
+        <v>244.964</v>
       </c>
       <c r="D41">
-        <v>4531.5910000000003</v>
+        <v>3207.7280000000001</v>
       </c>
       <c r="E41">
-        <v>1143.5</v>
+        <v>799.55899999999997</v>
       </c>
       <c r="F41">
-        <v>1526.979</v>
+        <v>1333.338</v>
       </c>
       <c r="G41">
-        <v>5005.4709999999995</v>
+        <v>4323.2340000000004</v>
       </c>
       <c r="H41">
-        <v>36100.436999999998</v>
+        <v>9292.8829999999998</v>
       </c>
       <c r="I41">
-        <v>747.53300000000002</v>
+        <v>558.34799999999996</v>
       </c>
       <c r="J41">
-        <v>11871.444</v>
+        <v>6489.201</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>6530.1289999999999</v>
+        <v>3590.11</v>
       </c>
       <c r="O41">
-        <v>22774.974999999999</v>
+        <v>10709.394</v>
       </c>
       <c r="P41">
-        <v>14214.684999999999</v>
+        <v>6515.3710000000001</v>
       </c>
       <c r="Q41">
-        <v>-766.58500000000004</v>
+        <v>405.91</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>13325.462</v>
+        <v>-1416.511</v>
       </c>
       <c r="U41">
-        <v>1811.308</v>
+        <v>714.35699999999997</v>
       </c>
       <c r="V41">
-        <v>1006.795</v>
+        <v>418.08100000000002</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>969.56200000000001</v>
+        <v>-100.22199999999999</v>
       </c>
       <c r="Y41">
-        <v>191.375</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-956.27700000000004</v>
+        <v>384.31299999999999</v>
       </c>
       <c r="AA41">
-        <v>504.59899999999999</v>
+        <v>244.964</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>251.828</v>
+      </c>
+      <c r="D42">
+        <v>3206.5790000000002</v>
+      </c>
+      <c r="E42">
+        <v>786.053</v>
+      </c>
+      <c r="F42">
+        <v>1316.069</v>
+      </c>
+      <c r="G42">
+        <v>4573.393</v>
+      </c>
+      <c r="H42">
+        <v>9632.1530000000002</v>
+      </c>
+      <c r="I42">
+        <v>400.76400000000001</v>
+      </c>
+      <c r="J42">
+        <v>5484.0410000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>4499.3010000000004</v>
+      </c>
+      <c r="O42">
+        <v>10765.596</v>
+      </c>
+      <c r="P42">
+        <v>6514.9359999999997</v>
+      </c>
+      <c r="Q42">
+        <v>-73.685000000000002</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>22000</v>
+      </c>
+      <c r="T42">
+        <v>-1133.443</v>
+      </c>
+      <c r="U42">
+        <v>640.67200000000003</v>
+      </c>
+      <c r="V42">
+        <v>605.86</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-3.79</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-396.75700000000001</v>
+      </c>
+      <c r="AA42">
+        <v>251.828</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>549.39400000000001</v>
+      </c>
+      <c r="D43">
+        <v>3224.1309999999999</v>
+      </c>
+      <c r="E43">
+        <v>740.83299999999997</v>
+      </c>
+      <c r="F43">
+        <v>1334.63</v>
+      </c>
+      <c r="G43">
+        <v>4996.7550000000001</v>
+      </c>
+      <c r="H43">
+        <v>10280.612999999999</v>
+      </c>
+      <c r="I43">
+        <v>370.77600000000001</v>
+      </c>
+      <c r="J43">
+        <v>5478.723</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-8.4979999999999993</v>
+      </c>
+      <c r="N43">
+        <v>4291.6729999999998</v>
+      </c>
+      <c r="O43">
+        <v>10783.084999999999</v>
+      </c>
+      <c r="P43">
+        <v>6506.3450000000003</v>
+      </c>
+      <c r="Q43">
+        <v>522.85</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>-502.47199999999998</v>
+      </c>
+      <c r="U43">
+        <v>1163.5219999999999</v>
+      </c>
+      <c r="V43">
+        <v>844.29499999999996</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-4.58</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>43.503</v>
+      </c>
+      <c r="AA43">
+        <v>549.39400000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>334.76</v>
+      </c>
+      <c r="D44">
+        <v>3590.1610000000001</v>
+      </c>
+      <c r="E44">
+        <v>830.90599999999995</v>
+      </c>
+      <c r="F44">
+        <v>1583.7539999999999</v>
+      </c>
+      <c r="G44">
+        <v>6412.7749999999996</v>
+      </c>
+      <c r="H44">
+        <v>12827.701999999999</v>
+      </c>
+      <c r="I44">
+        <v>471.49599999999998</v>
+      </c>
+      <c r="J44">
+        <v>7470.9539999999997</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>4248.6099999999997</v>
+      </c>
+      <c r="O44">
+        <v>12920.307000000001</v>
+      </c>
+      <c r="P44">
+        <v>8501.4459999999999</v>
+      </c>
+      <c r="Q44">
+        <v>691.72799999999995</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>-92.605000000000004</v>
+      </c>
+      <c r="U44">
+        <v>1855.25</v>
+      </c>
+      <c r="V44">
+        <v>414.05</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>1987.64</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-449.14100000000002</v>
+      </c>
+      <c r="AA44">
+        <v>334.76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>319.09899999999999</v>
+      </c>
+      <c r="D45">
+        <v>3602.6509999999998</v>
+      </c>
+      <c r="E45">
+        <v>825.41700000000003</v>
+      </c>
+      <c r="F45">
+        <v>1562.42</v>
+      </c>
+      <c r="G45">
+        <v>5423.2920000000004</v>
+      </c>
+      <c r="H45">
+        <v>13035.49</v>
+      </c>
+      <c r="I45">
+        <v>514.45500000000004</v>
+      </c>
+      <c r="J45">
+        <v>7461.5959999999995</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4071.9029999999998</v>
+      </c>
+      <c r="O45">
+        <v>12932.155000000001</v>
+      </c>
+      <c r="P45">
+        <v>8407.482</v>
+      </c>
+      <c r="Q45">
+        <v>-809.73400000000004</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>103.33499999999999</v>
+      </c>
+      <c r="U45">
+        <v>1045.5160000000001</v>
+      </c>
+      <c r="V45">
+        <v>732.81100000000004</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-90.570999999999998</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-1244.8689999999999</v>
+      </c>
+      <c r="AA45">
+        <v>319.09899999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>312.654</v>
+      </c>
+      <c r="D46">
+        <v>3631.45</v>
+      </c>
+      <c r="E46">
+        <v>794.81700000000001</v>
+      </c>
+      <c r="F46">
+        <v>1542.5050000000001</v>
+      </c>
+      <c r="G46">
+        <v>3747.8229999999999</v>
+      </c>
+      <c r="H46">
+        <v>11470.231</v>
+      </c>
+      <c r="I46">
+        <v>455.40800000000002</v>
+      </c>
+      <c r="J46">
+        <v>7458.134</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3220.511</v>
+      </c>
+      <c r="O46">
+        <v>11889.234</v>
+      </c>
+      <c r="P46">
+        <v>7493.7790000000005</v>
+      </c>
+      <c r="Q46">
+        <v>-436.40800000000002</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>34000</v>
+      </c>
+      <c r="T46">
+        <v>-419.00299999999999</v>
+      </c>
+      <c r="U46">
+        <v>609.10799999999995</v>
+      </c>
+      <c r="V46">
+        <v>582.72199999999998</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-1798.492</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-28.779</v>
+      </c>
+      <c r="AA46">
+        <v>312.654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>360.31</v>
+      </c>
+      <c r="D47">
+        <v>3581.8690000000001</v>
+      </c>
+      <c r="E47">
+        <v>776.56700000000001</v>
+      </c>
+      <c r="F47">
+        <v>1472.0530000000001</v>
+      </c>
+      <c r="G47">
+        <v>4349.4769999999999</v>
+      </c>
+      <c r="H47">
+        <v>12409.512000000001</v>
+      </c>
+      <c r="I47">
+        <v>523.76499999999999</v>
+      </c>
+      <c r="J47">
+        <v>7474.4260000000004</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-8.4580000000000002</v>
+      </c>
+      <c r="N47">
+        <v>3571.1190000000001</v>
+      </c>
+      <c r="O47">
+        <v>12465.094999999999</v>
+      </c>
+      <c r="P47">
+        <v>7510.4059999999999</v>
+      </c>
+      <c r="Q47">
+        <v>749.56</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>-55.582999999999998</v>
+      </c>
+      <c r="U47">
+        <v>1358.6679999999999</v>
+      </c>
+      <c r="V47">
+        <v>858.55</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-1.6619999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>102.19</v>
+      </c>
+      <c r="AA47">
+        <v>360.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>225.732</v>
+      </c>
+      <c r="D48">
+        <v>3571.7660000000001</v>
+      </c>
+      <c r="E48">
+        <v>830.82600000000002</v>
+      </c>
+      <c r="F48">
+        <v>1450.28</v>
+      </c>
+      <c r="G48">
+        <v>6497.0280000000002</v>
+      </c>
+      <c r="H48">
+        <v>14521.163</v>
+      </c>
+      <c r="I48">
+        <v>465.25799999999998</v>
+      </c>
+      <c r="J48">
+        <v>9364.9719999999998</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3515.6970000000001</v>
+      </c>
+      <c r="O48">
+        <v>14348.785</v>
+      </c>
+      <c r="P48">
+        <v>9399.4699999999993</v>
+      </c>
+      <c r="Q48">
+        <v>1237.0260000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>172.37799999999999</v>
+      </c>
+      <c r="U48">
+        <v>2595.694</v>
+      </c>
+      <c r="V48">
+        <v>489.51400000000001</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>1928.771</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-914.048</v>
+      </c>
+      <c r="AA48">
+        <v>225.732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-158.46100000000001</v>
+      </c>
+      <c r="D49">
+        <v>3523.3470000000002</v>
+      </c>
+      <c r="E49">
+        <v>821.21</v>
+      </c>
+      <c r="F49">
+        <v>1410.944</v>
+      </c>
+      <c r="G49">
+        <v>8335.9179999999997</v>
+      </c>
+      <c r="H49">
+        <v>16514.257000000001</v>
+      </c>
+      <c r="I49">
+        <v>480.45600000000002</v>
+      </c>
+      <c r="J49">
+        <v>10113.366</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>4142.0649999999996</v>
+      </c>
+      <c r="O49">
+        <v>16364.673000000001</v>
+      </c>
+      <c r="P49">
+        <v>10390.731</v>
+      </c>
+      <c r="Q49">
+        <v>491.94499999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>149.584</v>
+      </c>
+      <c r="U49">
+        <v>3087.6390000000001</v>
+      </c>
+      <c r="V49">
+        <v>685.97799999999995</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1006.587</v>
+      </c>
+      <c r="Y49">
+        <v>243.43299999999999</v>
+      </c>
+      <c r="Z49">
+        <v>-899.06399999999996</v>
+      </c>
+      <c r="AA49">
+        <v>-158.46100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>860.71500000000003</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>9059.1530000000002</v>
+      </c>
+      <c r="H50">
+        <v>17379.608</v>
+      </c>
+      <c r="I50">
+        <v>511.43299999999999</v>
+      </c>
+      <c r="J50">
+        <v>11350.398999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3924.4670000000001</v>
+      </c>
+      <c r="O50">
+        <v>17307.98</v>
+      </c>
+      <c r="P50">
+        <v>11887.683999999999</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>35000</v>
+      </c>
+      <c r="T50">
+        <v>71.628</v>
+      </c>
+      <c r="U50">
+        <v>3573.7420000000002</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>215.59800000000001</v>
+      </c>
+      <c r="D51">
+        <v>3375.53</v>
+      </c>
+      <c r="E51">
+        <v>876.46</v>
+      </c>
+      <c r="F51">
+        <v>1241.4690000000001</v>
+      </c>
+      <c r="G51">
+        <v>9336.5609999999997</v>
+      </c>
+      <c r="H51">
+        <v>17654.399000000001</v>
+      </c>
+      <c r="I51">
+        <v>576.92600000000004</v>
+      </c>
+      <c r="J51">
+        <v>11343.228999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-8.4789999999999992</v>
+      </c>
+      <c r="N51">
+        <v>3872.56</v>
+      </c>
+      <c r="O51">
+        <v>17334.445</v>
+      </c>
+      <c r="P51">
+        <v>11879.633</v>
+      </c>
+      <c r="Q51">
+        <v>-675.298</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>319.95400000000001</v>
+      </c>
+      <c r="U51">
+        <v>2930.8420000000001</v>
+      </c>
+      <c r="V51">
+        <v>686.46199999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>2.7480000000000002</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-498.99900000000002</v>
+      </c>
+      <c r="AA51">
+        <v>215.59800000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-11.052</v>
+      </c>
+      <c r="D52">
+        <v>3485.7739999999999</v>
+      </c>
+      <c r="E52">
+        <v>902.22699999999998</v>
+      </c>
+      <c r="F52">
+        <v>1336.4190000000001</v>
+      </c>
+      <c r="G52">
+        <v>12161.891</v>
+      </c>
+      <c r="H52">
+        <v>20065.800999999999</v>
+      </c>
+      <c r="I52">
+        <v>616.101</v>
+      </c>
+      <c r="J52">
+        <v>13633.031999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>4011.9</v>
+      </c>
+      <c r="O52">
+        <v>19696.113000000001</v>
+      </c>
+      <c r="P52">
+        <v>14168.869000000001</v>
+      </c>
+      <c r="Q52">
+        <v>1162.98</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>369.68799999999999</v>
+      </c>
+      <c r="U52">
+        <v>4093.8220000000001</v>
+      </c>
+      <c r="V52">
+        <v>544.80499999999995</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>2311.991</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-1254.8610000000001</v>
+      </c>
+      <c r="AA52">
+        <v>-11.052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>314.90800000000002</v>
+      </c>
+      <c r="D53">
+        <v>3505.0210000000002</v>
+      </c>
+      <c r="E53">
+        <v>928.851</v>
+      </c>
+      <c r="F53">
+        <v>1291.596</v>
+      </c>
+      <c r="G53">
+        <v>12338.987999999999</v>
+      </c>
+      <c r="H53">
+        <v>20345.240000000002</v>
+      </c>
+      <c r="I53">
+        <v>601.54100000000005</v>
+      </c>
+      <c r="J53">
+        <v>13624.285</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3923.0720000000001</v>
+      </c>
+      <c r="O53">
+        <v>19619.403999999999</v>
+      </c>
+      <c r="P53">
+        <v>14111.324000000001</v>
+      </c>
+      <c r="Q53">
+        <v>699.63099999999997</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>725.83600000000001</v>
+      </c>
+      <c r="U53">
+        <v>4793.4530000000004</v>
+      </c>
+      <c r="V53">
+        <v>401.04899999999998</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-16.861999999999998</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-48.359000000000002</v>
+      </c>
+      <c r="AA53">
+        <v>314.90800000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>288.03800000000001</v>
+      </c>
+      <c r="D54">
+        <v>3538.54</v>
+      </c>
+      <c r="E54">
+        <v>957.51800000000003</v>
+      </c>
+      <c r="F54">
+        <v>1308.105</v>
+      </c>
+      <c r="G54">
+        <v>12313.446</v>
+      </c>
+      <c r="H54">
+        <v>20356.43</v>
+      </c>
+      <c r="I54">
+        <v>636.95500000000004</v>
+      </c>
+      <c r="J54">
+        <v>12596.793</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4551.6490000000003</v>
+      </c>
+      <c r="O54">
+        <v>19359.424999999999</v>
+      </c>
+      <c r="P54">
+        <v>13631.686</v>
+      </c>
+      <c r="Q54">
+        <v>-84.271000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>25000</v>
+      </c>
+      <c r="T54">
+        <v>997.005</v>
+      </c>
+      <c r="U54">
+        <v>4700.0219999999999</v>
+      </c>
+      <c r="V54">
+        <v>640.149</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-446.37200000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>445.72199999999998</v>
+      </c>
+      <c r="AA54">
+        <v>288.03800000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>175.93100000000001</v>
+      </c>
+      <c r="D55">
+        <v>3594.1979999999999</v>
+      </c>
+      <c r="E55">
+        <v>939.81299999999999</v>
+      </c>
+      <c r="F55">
+        <v>1284.902</v>
+      </c>
+      <c r="G55">
+        <v>12588.779</v>
+      </c>
+      <c r="H55">
+        <v>20550.786</v>
+      </c>
+      <c r="I55">
+        <v>543.81299999999999</v>
+      </c>
+      <c r="J55">
+        <v>12570.232</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-7.7240000000000002</v>
+      </c>
+      <c r="N55">
+        <v>4636.6210000000001</v>
+      </c>
+      <c r="O55">
+        <v>19406.102999999999</v>
+      </c>
+      <c r="P55">
+        <v>13600.485000000001</v>
+      </c>
+      <c r="Q55">
+        <v>-540.495</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1144.683</v>
+      </c>
+      <c r="U55">
+        <v>4168.6869999999999</v>
+      </c>
+      <c r="V55">
+        <v>653.89800000000002</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>284.43400000000003</v>
+      </c>
+      <c r="AA55">
+        <v>175.93100000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>213.31299999999999</v>
+      </c>
+      <c r="D56">
+        <v>3688.1190000000001</v>
+      </c>
+      <c r="E56">
+        <v>972.78399999999999</v>
+      </c>
+      <c r="F56">
+        <v>1304.451</v>
+      </c>
+      <c r="G56">
+        <v>11093.666999999999</v>
+      </c>
+      <c r="H56">
+        <v>20768.696</v>
+      </c>
+      <c r="I56">
+        <v>500.20499999999998</v>
+      </c>
+      <c r="J56">
+        <v>11795.566000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>5308.1909999999998</v>
+      </c>
+      <c r="O56">
+        <v>19332.764999999999</v>
+      </c>
+      <c r="P56">
+        <v>13461.545</v>
+      </c>
+      <c r="Q56">
+        <v>-41.328000000000003</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1435.931</v>
+      </c>
+      <c r="U56">
+        <v>4127.3590000000004</v>
+      </c>
+      <c r="V56">
+        <v>467.25099999999998</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-67.337000000000003</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-38.686999999999998</v>
+      </c>
+      <c r="AA56">
+        <v>213.31299999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>145.51900000000001</v>
+      </c>
+      <c r="D57">
+        <v>3679.3510000000001</v>
+      </c>
+      <c r="E57">
+        <v>1027.7929999999999</v>
+      </c>
+      <c r="F57">
+        <v>1282.69</v>
+      </c>
+      <c r="G57">
+        <v>11413.787</v>
+      </c>
+      <c r="H57">
+        <v>21123.431</v>
+      </c>
+      <c r="I57">
+        <v>545.476</v>
+      </c>
+      <c r="J57">
+        <v>11789.609</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>5466.7470000000003</v>
+      </c>
+      <c r="O57">
+        <v>19557.126</v>
+      </c>
+      <c r="P57">
+        <v>13371.01</v>
+      </c>
+      <c r="Q57">
+        <v>623.197</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1566.3050000000001</v>
+      </c>
+      <c r="U57">
+        <v>4750.5559999999996</v>
+      </c>
+      <c r="V57">
+        <v>635.524</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-85.302999999999997</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>387.52100000000002</v>
+      </c>
+      <c r="AA57">
+        <v>145.51900000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>409.93</v>
+      </c>
+      <c r="D58">
+        <v>3681.7190000000001</v>
+      </c>
+      <c r="E58">
+        <v>951.49300000000005</v>
+      </c>
+      <c r="F58">
+        <v>1401.4939999999999</v>
+      </c>
+      <c r="G58">
+        <v>12552.066999999999</v>
+      </c>
+      <c r="H58">
+        <v>22045.541000000001</v>
+      </c>
+      <c r="I58">
+        <v>416.99299999999999</v>
+      </c>
+      <c r="J58">
+        <v>13746.058999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>4112.5249999999996</v>
+      </c>
+      <c r="O58">
+        <v>19991.909</v>
+      </c>
+      <c r="P58">
+        <v>14427.526</v>
+      </c>
+      <c r="Q58">
+        <v>2353.94</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>19000</v>
+      </c>
+      <c r="T58">
+        <v>2053.6320000000001</v>
+      </c>
+      <c r="U58">
+        <v>7104.4960000000001</v>
+      </c>
+      <c r="V58">
+        <v>621.45100000000002</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1132.702</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>2301.3470000000002</v>
+      </c>
+      <c r="AA58">
+        <v>409.93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>351.48500000000001</v>
+      </c>
+      <c r="D59">
+        <v>3724.2280000000001</v>
+      </c>
+      <c r="E59">
+        <v>928.51099999999997</v>
+      </c>
+      <c r="F59">
+        <v>1282.249</v>
+      </c>
+      <c r="G59">
+        <v>13413.6</v>
+      </c>
+      <c r="H59">
+        <v>22925.205000000002</v>
+      </c>
+      <c r="I59">
+        <v>468.60199999999998</v>
+      </c>
+      <c r="J59">
+        <v>12240.749</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-7.1159999999999997</v>
+      </c>
+      <c r="N59">
+        <v>5924.6629999999996</v>
+      </c>
+      <c r="O59">
+        <v>20387.987000000001</v>
+      </c>
+      <c r="P59">
+        <v>14422.924000000001</v>
+      </c>
+      <c r="Q59">
+        <v>-6054.5990000000002</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2537.2179999999998</v>
+      </c>
+      <c r="U59">
+        <v>1049.8969999999999</v>
+      </c>
+      <c r="V59">
+        <v>891.59699999999998</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>211.39599999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>1788.953</v>
+      </c>
+      <c r="AA59">
+        <v>351.48500000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>324.423</v>
+      </c>
+      <c r="D60">
+        <v>3832.4250000000002</v>
+      </c>
+      <c r="E60">
+        <v>1018.7089999999999</v>
+      </c>
+      <c r="F60">
+        <v>1323.1759999999999</v>
+      </c>
+      <c r="G60">
+        <v>13278.282999999999</v>
+      </c>
+      <c r="H60">
+        <v>22762.687999999998</v>
+      </c>
+      <c r="I60">
+        <v>447.14100000000002</v>
+      </c>
+      <c r="J60">
+        <v>12235.118</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>5309.2349999999997</v>
+      </c>
+      <c r="O60">
+        <v>19840.254000000001</v>
+      </c>
+      <c r="P60">
+        <v>13767.674000000001</v>
+      </c>
+      <c r="Q60">
+        <v>-355.64800000000002</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2922.4340000000002</v>
+      </c>
+      <c r="U60">
+        <v>694.24900000000002</v>
+      </c>
+      <c r="V60">
+        <v>557.55899999999997</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-640.57100000000003</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-8.83</v>
+      </c>
+      <c r="AA60">
+        <v>324.423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>196.47900000000001</v>
+      </c>
+      <c r="D61">
+        <v>3733.5650000000001</v>
+      </c>
+      <c r="E61">
+        <v>905.14099999999996</v>
+      </c>
+      <c r="F61">
+        <v>1285.086</v>
+      </c>
+      <c r="G61">
+        <v>13625.813</v>
+      </c>
+      <c r="H61">
+        <v>23102.958999999999</v>
+      </c>
+      <c r="I61">
+        <v>444.98399999999998</v>
+      </c>
+      <c r="J61">
+        <v>12228.276</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>5265.9110000000001</v>
+      </c>
+      <c r="O61">
+        <v>19973.097000000002</v>
+      </c>
+      <c r="P61">
+        <v>13761.615</v>
+      </c>
+      <c r="Q61">
+        <v>550.13199999999995</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3129.8620000000001</v>
+      </c>
+      <c r="U61">
+        <v>1244.3810000000001</v>
+      </c>
+      <c r="V61">
+        <v>780.88099999999997</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-3.891</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>28.065999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>196.47900000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-125.295</v>
+      </c>
+      <c r="D62">
+        <v>3778.683</v>
+      </c>
+      <c r="E62">
+        <v>864.02800000000002</v>
+      </c>
+      <c r="F62">
+        <v>1346.59</v>
+      </c>
+      <c r="G62">
+        <v>3543.2429999999999</v>
+      </c>
+      <c r="H62">
+        <v>22886.71</v>
+      </c>
+      <c r="I62">
+        <v>470.226</v>
+      </c>
+      <c r="J62">
+        <v>12221.924999999999</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>5162.9399999999996</v>
+      </c>
+      <c r="O62">
+        <v>19854.68</v>
+      </c>
+      <c r="P62">
+        <v>13755.924999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-191.22300000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>18000</v>
+      </c>
+      <c r="T62">
+        <v>3032.03</v>
+      </c>
+      <c r="U62">
+        <v>1053.1579999999999</v>
+      </c>
+      <c r="V62">
+        <v>206.04300000000001</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>19.797000000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-201.285</v>
+      </c>
+      <c r="AA62">
+        <v>-125.295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>399.89100000000002</v>
+      </c>
+      <c r="D63">
+        <v>3827.4740000000002</v>
+      </c>
+      <c r="E63">
+        <v>806.09100000000001</v>
+      </c>
+      <c r="F63">
+        <v>1332.8520000000001</v>
+      </c>
+      <c r="G63">
+        <v>2557.5010000000002</v>
+      </c>
+      <c r="H63">
+        <v>22009.374</v>
+      </c>
+      <c r="I63">
+        <v>561.34699999999998</v>
+      </c>
+      <c r="J63">
+        <v>12215.94</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-1510.348</v>
+      </c>
+      <c r="N63">
+        <v>3844.973</v>
+      </c>
+      <c r="O63">
+        <v>18589.035</v>
+      </c>
+      <c r="P63">
+        <v>12251.138999999999</v>
+      </c>
+      <c r="Q63">
+        <v>-344.12700000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3420.3389999999999</v>
+      </c>
+      <c r="U63">
+        <v>708.97199999999998</v>
+      </c>
+      <c r="V63">
+        <v>928.03599999999994</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-1537.7139999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>417.61</v>
+      </c>
+      <c r="AA63">
+        <v>399.89100000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>424.10300000000001</v>
+      </c>
+      <c r="D64">
+        <v>3864.5909999999999</v>
+      </c>
+      <c r="E64">
+        <v>861.17600000000004</v>
+      </c>
+      <c r="F64">
+        <v>1373.057</v>
+      </c>
+      <c r="G64">
+        <v>4913.0709999999999</v>
+      </c>
+      <c r="H64">
+        <v>24449.794999999998</v>
+      </c>
+      <c r="I64">
+        <v>575.202</v>
+      </c>
+      <c r="J64">
+        <v>14201.56</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3760.7930000000001</v>
+      </c>
+      <c r="O64">
+        <v>20624.992999999999</v>
+      </c>
+      <c r="P64">
+        <v>14237.073</v>
+      </c>
+      <c r="Q64">
+        <v>2640.3009999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3824.8020000000001</v>
+      </c>
+      <c r="U64">
+        <v>3349.364</v>
+      </c>
+      <c r="V64">
+        <v>663.61400000000003</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>1968.588</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>9.5939999999999994</v>
+      </c>
+      <c r="AA64">
+        <v>424.10300000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>318.452</v>
+      </c>
+      <c r="D65">
+        <v>3767.4720000000002</v>
+      </c>
+      <c r="E65">
+        <v>815.87300000000005</v>
+      </c>
+      <c r="F65">
+        <v>1304.548</v>
+      </c>
+      <c r="G65">
+        <v>7900.9880000000003</v>
+      </c>
+      <c r="H65">
+        <v>27576.508999999998</v>
+      </c>
+      <c r="I65">
+        <v>610.93100000000004</v>
+      </c>
+      <c r="J65">
+        <v>15534.244000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4590.1409999999996</v>
+      </c>
+      <c r="O65">
+        <v>22967.67</v>
+      </c>
+      <c r="P65">
+        <v>16471.73</v>
+      </c>
+      <c r="Q65">
+        <v>1434.787</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4608.8389999999999</v>
+      </c>
+      <c r="U65">
+        <v>4784.3</v>
+      </c>
+      <c r="V65">
+        <v>599.81200000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>2715.7860000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-75.974000000000004</v>
+      </c>
+      <c r="AA65">
+        <v>318.452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>355.49299999999999</v>
+      </c>
+      <c r="D66">
+        <v>3752.7649999999999</v>
+      </c>
+      <c r="E66">
+        <v>777.90800000000002</v>
+      </c>
+      <c r="F66">
+        <v>1300.0930000000001</v>
+      </c>
+      <c r="G66">
+        <v>8280.3870000000006</v>
+      </c>
+      <c r="H66">
+        <v>27914.292000000001</v>
+      </c>
+      <c r="I66">
+        <v>524.70399999999995</v>
+      </c>
+      <c r="J66">
+        <v>15541.736000000001</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>4592.8320000000003</v>
+      </c>
+      <c r="O66">
+        <v>22983.334999999999</v>
+      </c>
+      <c r="P66">
+        <v>16483.638999999999</v>
+      </c>
+      <c r="Q66">
+        <v>539.55899999999997</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>16000</v>
+      </c>
+      <c r="T66">
+        <v>4930.9570000000003</v>
+      </c>
+      <c r="U66">
+        <v>5324.5029999999997</v>
+      </c>
+      <c r="V66">
+        <v>662.78499999999997</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>7.27</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>172.352</v>
+      </c>
+      <c r="AA66">
+        <v>355.49299999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>375.71499999999997</v>
+      </c>
+      <c r="D67">
+        <v>3680.3609999999999</v>
+      </c>
+      <c r="E67">
+        <v>704.24599999999998</v>
+      </c>
+      <c r="F67">
+        <v>1212.008</v>
+      </c>
+      <c r="G67">
+        <v>9596.6309999999994</v>
+      </c>
+      <c r="H67">
+        <v>29448.199000000001</v>
+      </c>
+      <c r="I67">
+        <v>556.31899999999996</v>
+      </c>
+      <c r="J67">
+        <v>16292.665999999999</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-9.1620000000000008</v>
+      </c>
+      <c r="N67">
+        <v>4570.1289999999999</v>
+      </c>
+      <c r="O67">
+        <v>23957.673999999999</v>
+      </c>
+      <c r="P67">
+        <v>17235.116999999998</v>
+      </c>
+      <c r="Q67">
+        <v>1465.6969999999999</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5490.5249999999996</v>
+      </c>
+      <c r="U67">
+        <v>6782.2520000000004</v>
+      </c>
+      <c r="V67">
+        <v>936.76700000000005</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>983.95600000000002</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-71.093999999999994</v>
+      </c>
+      <c r="AA67">
+        <v>375.71499999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>40.116</v>
+      </c>
+      <c r="D68">
+        <v>3643.6320000000001</v>
+      </c>
+      <c r="E68">
+        <v>737.029</v>
+      </c>
+      <c r="F68">
+        <v>1192.3530000000001</v>
+      </c>
+      <c r="G68">
+        <v>3713.0320000000002</v>
+      </c>
+      <c r="H68">
+        <v>29917.559000000001</v>
+      </c>
+      <c r="I68">
+        <v>328.09800000000001</v>
+      </c>
+      <c r="J68">
+        <v>15107.048000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>5901.6049999999996</v>
+      </c>
+      <c r="O68">
+        <v>24328.991000000002</v>
+      </c>
+      <c r="P68">
+        <v>17248.027999999998</v>
+      </c>
+      <c r="Q68">
+        <v>-4424.8320000000003</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5588.5680000000002</v>
+      </c>
+      <c r="U68">
+        <v>2365.893</v>
+      </c>
+      <c r="V68">
+        <v>556.32899999999995</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-0.52</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AA68">
+        <v>40.116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>297.375</v>
+      </c>
+      <c r="D69">
+        <v>3583.4540000000002</v>
+      </c>
+      <c r="E69">
+        <v>703.63099999999997</v>
+      </c>
+      <c r="F69">
+        <v>1148.3140000000001</v>
+      </c>
+      <c r="G69">
+        <v>3122.5509999999999</v>
+      </c>
+      <c r="H69">
+        <v>29520.855</v>
+      </c>
+      <c r="I69">
+        <v>374.13</v>
+      </c>
+      <c r="J69">
+        <v>15119.419</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4954.3580000000002</v>
+      </c>
+      <c r="O69">
+        <v>23600.811000000002</v>
+      </c>
+      <c r="P69">
+        <v>16360.606</v>
+      </c>
+      <c r="Q69">
+        <v>-782.79600000000005</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5920.0439999999999</v>
+      </c>
+      <c r="U69">
+        <v>1582.85</v>
+      </c>
+      <c r="V69">
+        <v>733.98699999999997</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-905.279</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-195.59800000000001</v>
+      </c>
+      <c r="AA69">
+        <v>297.375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1385.4829999999999</v>
+      </c>
+      <c r="D70">
+        <v>3483.9279999999999</v>
+      </c>
+      <c r="E70">
+        <v>653.94799999999998</v>
+      </c>
+      <c r="F70">
+        <v>1091.4369999999999</v>
+      </c>
+      <c r="G70">
+        <v>3285.0230000000001</v>
+      </c>
+      <c r="H70">
+        <v>29773.766</v>
+      </c>
+      <c r="I70">
+        <v>393.30500000000001</v>
+      </c>
+      <c r="J70">
+        <v>15030.123</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>4828.0039999999999</v>
+      </c>
+      <c r="O70">
+        <v>22452.47</v>
+      </c>
+      <c r="P70">
+        <v>16202.965</v>
+      </c>
+      <c r="Q70">
+        <v>-103.352</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>17000</v>
+      </c>
+      <c r="T70">
+        <v>7321.2960000000003</v>
+      </c>
+      <c r="U70">
+        <v>1479.508</v>
+      </c>
+      <c r="V70">
+        <v>552.42399999999998</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-181.39400000000001</v>
+      </c>
+      <c r="Y70">
+        <v>104.318</v>
+      </c>
+      <c r="Z70">
+        <v>-184.95</v>
+      </c>
+      <c r="AA70">
+        <v>1385.4829999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>367.56</v>
+      </c>
+      <c r="D71">
+        <v>3458.4870000000001</v>
+      </c>
+      <c r="E71">
+        <v>601.673</v>
+      </c>
+      <c r="F71">
+        <v>1072.336</v>
+      </c>
+      <c r="G71">
+        <v>3465.5610000000001</v>
+      </c>
+      <c r="H71">
+        <v>30154.933000000001</v>
+      </c>
+      <c r="I71">
+        <v>331.38799999999998</v>
+      </c>
+      <c r="J71">
+        <v>15152.075999999999</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-66.930999999999997</v>
+      </c>
+      <c r="N71">
+        <v>4692.3370000000004</v>
+      </c>
+      <c r="O71">
+        <v>22428.468000000001</v>
+      </c>
+      <c r="P71">
+        <v>16160.977999999999</v>
+      </c>
+      <c r="Q71">
+        <v>635.85500000000002</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7726.4650000000001</v>
+      </c>
+      <c r="U71">
+        <v>2115.3490000000002</v>
+      </c>
+      <c r="V71">
+        <v>751.55100000000004</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-59.098999999999997</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>304.31400000000002</v>
+      </c>
+      <c r="AA71">
+        <v>367.56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>438.71699999999998</v>
+      </c>
+      <c r="D72">
+        <v>3460.8449999999998</v>
+      </c>
+      <c r="E72">
+        <v>641.88800000000003</v>
+      </c>
+      <c r="F72">
+        <v>1110.1410000000001</v>
+      </c>
+      <c r="G72">
+        <v>2743.71</v>
+      </c>
+      <c r="H72">
+        <v>29650.011999999999</v>
+      </c>
+      <c r="I72">
+        <v>284.767</v>
+      </c>
+      <c r="J72">
+        <v>15109.6</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3631.5160000000001</v>
+      </c>
+      <c r="O72">
+        <v>21423.305</v>
+      </c>
+      <c r="P72">
+        <v>15144.424000000001</v>
+      </c>
+      <c r="Q72">
+        <v>-1107.5540000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8226.7070000000003</v>
+      </c>
+      <c r="U72">
+        <v>1007.784</v>
+      </c>
+      <c r="V72">
+        <v>573.78700000000003</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-1040.4749999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-367.11</v>
+      </c>
+      <c r="AA72">
+        <v>438.71699999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>431.73399999999998</v>
+      </c>
+      <c r="D73">
+        <v>3395.1410000000001</v>
+      </c>
+      <c r="E73">
+        <v>670.82600000000002</v>
+      </c>
+      <c r="F73">
+        <v>1086.251</v>
+      </c>
+      <c r="G73">
+        <v>3038.9090000000001</v>
+      </c>
+      <c r="H73">
+        <v>30137.41</v>
+      </c>
+      <c r="I73">
+        <v>269.51499999999999</v>
+      </c>
+      <c r="J73">
+        <v>13790.114</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4877.5969999999998</v>
+      </c>
+      <c r="O73">
+        <v>21454.201000000001</v>
+      </c>
+      <c r="P73">
+        <v>15157.23</v>
+      </c>
+      <c r="Q73">
+        <v>221.905</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>8683.2090000000007</v>
+      </c>
+      <c r="U73">
+        <v>1229.7170000000001</v>
+      </c>
+      <c r="V73">
+        <v>690.39599999999996</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-7.9290000000000003</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-63.957999999999998</v>
+      </c>
+      <c r="AA73">
+        <v>431.73399999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>337.08</v>
+      </c>
+      <c r="D74">
+        <v>3306.8290000000002</v>
+      </c>
+      <c r="E74">
+        <v>639.85500000000002</v>
+      </c>
+      <c r="F74">
+        <v>1035.5719999999999</v>
+      </c>
+      <c r="G74">
+        <v>3289.2049999999999</v>
+      </c>
+      <c r="H74">
+        <v>30587.011999999999</v>
+      </c>
+      <c r="I74">
+        <v>233.75299999999999</v>
+      </c>
+      <c r="J74">
+        <v>13743.8</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>4776.1319999999996</v>
+      </c>
+      <c r="O74">
+        <v>21532.755000000001</v>
+      </c>
+      <c r="P74">
+        <v>15152.777</v>
+      </c>
+      <c r="Q74">
+        <v>-342.18299999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>16000</v>
+      </c>
+      <c r="T74">
+        <v>9054.2569999999996</v>
+      </c>
+      <c r="U74">
+        <v>887.346</v>
+      </c>
+      <c r="V74">
+        <v>502.10700000000003</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-27.042000000000002</v>
+      </c>
+      <c r="Y74">
+        <v>66.983999999999995</v>
+      </c>
+      <c r="Z74">
+        <v>-546.92600000000004</v>
+      </c>
+      <c r="AA74">
+        <v>337.08</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>339.76100000000002</v>
+      </c>
+      <c r="D75">
+        <v>3187.1439999999998</v>
+      </c>
+      <c r="E75">
+        <v>581.68499999999995</v>
+      </c>
+      <c r="F75">
+        <v>995.73500000000001</v>
+      </c>
+      <c r="G75">
+        <v>3592.2170000000001</v>
+      </c>
+      <c r="H75">
+        <v>31686.377</v>
+      </c>
+      <c r="I75">
+        <v>277.36700000000002</v>
+      </c>
+      <c r="J75">
+        <v>13783.014999999999</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-28.997</v>
+      </c>
+      <c r="N75">
+        <v>4955.0559999999996</v>
+      </c>
+      <c r="O75">
+        <v>22253.718000000001</v>
+      </c>
+      <c r="P75">
+        <v>15871.207</v>
+      </c>
+      <c r="Q75">
+        <v>697.41399999999999</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>9432.6589999999997</v>
+      </c>
+      <c r="U75">
+        <v>1576.672</v>
+      </c>
+      <c r="V75">
+        <v>732.92899999999997</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>4.7530000000000001</v>
+      </c>
+      <c r="Y75">
+        <v>534.245</v>
+      </c>
+      <c r="Z75">
+        <v>367.87099999999998</v>
+      </c>
+      <c r="AA75">
+        <v>339.76100000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>317.04300000000001</v>
+      </c>
+      <c r="D76">
+        <v>3211.3119999999999</v>
+      </c>
+      <c r="E76">
+        <v>584.11599999999999</v>
+      </c>
+      <c r="F76">
+        <v>1018.263</v>
+      </c>
+      <c r="G76">
+        <v>3917.855</v>
+      </c>
+      <c r="H76">
+        <v>32284.116000000002</v>
+      </c>
+      <c r="I76">
+        <v>361.048</v>
+      </c>
+      <c r="J76">
+        <v>12709.352999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>6195.5010000000002</v>
+      </c>
+      <c r="O76">
+        <v>22448.909</v>
+      </c>
+      <c r="P76">
+        <v>15843.361000000001</v>
+      </c>
+      <c r="Q76">
+        <v>330.38099999999997</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>9835.2070000000003</v>
+      </c>
+      <c r="U76">
+        <v>1901.0640000000001</v>
+      </c>
+      <c r="V76">
+        <v>613.39</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>38.292999999999999</v>
+      </c>
+      <c r="Y76">
+        <v>493.57400000000001</v>
+      </c>
+      <c r="Z76">
+        <v>-12.544</v>
+      </c>
+      <c r="AA76">
+        <v>317.04300000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>353.30399999999997</v>
+      </c>
+      <c r="D77">
+        <v>3168.3629999999998</v>
+      </c>
+      <c r="E77">
+        <v>577.79700000000003</v>
+      </c>
+      <c r="F77">
+        <v>1071.0319999999999</v>
+      </c>
+      <c r="G77">
+        <v>2731.3919999999998</v>
+      </c>
+      <c r="H77">
+        <v>31771.439999999999</v>
+      </c>
+      <c r="I77">
+        <v>317.69</v>
+      </c>
+      <c r="J77">
+        <v>12772.558000000001</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4566.6540000000005</v>
+      </c>
+      <c r="O77">
+        <v>21074.206999999999</v>
+      </c>
+      <c r="P77">
+        <v>14284.739</v>
+      </c>
+      <c r="Q77">
+        <v>-451.9</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>10697.233</v>
+      </c>
+      <c r="U77">
+        <v>1403.3579999999999</v>
+      </c>
+      <c r="V77">
+        <v>682.31</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-1353.5709999999999</v>
+      </c>
+      <c r="Y77">
+        <v>281.017</v>
+      </c>
+      <c r="Z77">
+        <v>637.88800000000003</v>
+      </c>
+      <c r="AA77">
+        <v>353.30399999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>389.404</v>
+      </c>
+      <c r="D78">
+        <v>3240.8649999999998</v>
+      </c>
+      <c r="E78">
+        <v>588.35799999999995</v>
+      </c>
+      <c r="F78">
+        <v>1172.683</v>
+      </c>
+      <c r="G78">
+        <v>4015.1</v>
+      </c>
+      <c r="H78">
+        <v>33230.934999999998</v>
+      </c>
+      <c r="I78">
+        <v>280.64499999999998</v>
+      </c>
+      <c r="J78">
+        <v>12796.522999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4496.0910000000003</v>
+      </c>
+      <c r="O78">
+        <v>21114.788</v>
+      </c>
+      <c r="P78">
+        <v>14282.3</v>
+      </c>
+      <c r="Q78">
+        <v>1040.501</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>16000</v>
+      </c>
+      <c r="T78">
+        <v>12116.147000000001</v>
+      </c>
+      <c r="U78">
+        <v>2443.643</v>
+      </c>
+      <c r="V78">
+        <v>633.77200000000005</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>982.35599999999999</v>
+      </c>
+      <c r="Y78">
+        <v>256.50099999999998</v>
+      </c>
+      <c r="Z78">
+        <v>-223.107</v>
+      </c>
+      <c r="AA78">
+        <v>389.404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>73.099000000000004</v>
+      </c>
+      <c r="D79">
+        <v>3217.3890000000001</v>
+      </c>
+      <c r="E79">
+        <v>544.10599999999999</v>
+      </c>
+      <c r="F79">
+        <v>1131.2719999999999</v>
+      </c>
+      <c r="G79">
+        <v>4642.2889999999998</v>
+      </c>
+      <c r="H79">
+        <v>33673.294999999998</v>
+      </c>
+      <c r="I79">
+        <v>356.55500000000001</v>
+      </c>
+      <c r="J79">
+        <v>12823.798000000001</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-16.713000000000001</v>
+      </c>
+      <c r="N79">
+        <v>4630.9870000000001</v>
+      </c>
+      <c r="O79">
+        <v>21435.715</v>
+      </c>
+      <c r="P79">
+        <v>14291.611000000001</v>
+      </c>
+      <c r="Q79">
+        <v>383.63099999999997</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>12237.58</v>
+      </c>
+      <c r="U79">
+        <v>2827.0509999999999</v>
+      </c>
+      <c r="V79">
+        <v>875.95299999999997</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-11.186</v>
+      </c>
+      <c r="Y79">
+        <v>237.68600000000001</v>
+      </c>
+      <c r="Z79">
+        <v>-144.21199999999999</v>
+      </c>
+      <c r="AA79">
+        <v>73.099000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>452.34300000000002</v>
+      </c>
+      <c r="D80">
+        <v>3187.09</v>
+      </c>
+      <c r="E80">
+        <v>531.827</v>
+      </c>
+      <c r="F80">
+        <v>1200.463</v>
+      </c>
+      <c r="G80">
+        <v>4108.5739999999996</v>
+      </c>
+      <c r="H80">
+        <v>33497.474000000002</v>
+      </c>
+      <c r="I80">
+        <v>372.26600000000002</v>
+      </c>
+      <c r="J80">
+        <v>10849.082</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>5780.21</v>
+      </c>
+      <c r="O80">
+        <v>20732.121999999999</v>
+      </c>
+      <c r="P80">
+        <v>13195.6</v>
+      </c>
+      <c r="Q80">
+        <v>-236.785</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>12765.352000000001</v>
+      </c>
+      <c r="U80">
+        <v>2589.817</v>
+      </c>
+      <c r="V80">
+        <v>834.94299999999998</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-1115.3130000000001</v>
+      </c>
+      <c r="Y80">
+        <v>214.483</v>
+      </c>
+      <c r="Z80">
+        <v>519.60799999999995</v>
+      </c>
+      <c r="AA80">
+        <v>452.34300000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>504.59899999999999</v>
+      </c>
+      <c r="D81">
+        <v>4531.5910000000003</v>
+      </c>
+      <c r="E81">
+        <v>1143.5</v>
+      </c>
+      <c r="F81">
+        <v>1526.979</v>
+      </c>
+      <c r="G81">
+        <v>5005.4709999999995</v>
+      </c>
+      <c r="H81">
+        <v>36100.436999999998</v>
+      </c>
+      <c r="I81">
+        <v>747.53300000000002</v>
+      </c>
+      <c r="J81">
+        <v>11871.444</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>6530.1289999999999</v>
+      </c>
+      <c r="O81">
+        <v>22774.974999999999</v>
+      </c>
+      <c r="P81">
+        <v>14214.684999999999</v>
+      </c>
+      <c r="Q81">
+        <v>-766.58500000000004</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>13325.462</v>
+      </c>
+      <c r="U81">
+        <v>1811.308</v>
+      </c>
+      <c r="V81">
+        <v>1006.795</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>969.56200000000001</v>
+      </c>
+      <c r="Y81">
+        <v>191.375</v>
+      </c>
+      <c r="Z81">
+        <v>-956.27700000000004</v>
+      </c>
+      <c r="AA81">
+        <v>504.59899999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>732.63199999999995</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>4557.3649999999998</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1104.202</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1615.425</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>7022.1580000000004</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>38239.947</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>395.39699999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>13512.612999999999</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>6084.7460000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>24108.653999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>15822.41</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>1569.413</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>13500</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>14131.293</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3370.0920000000001</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>594.08500000000004</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>1656.4069999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>167.321</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>623.03</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>732.63199999999995</v>
       </c>
     </row>
